--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P03_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P03_trail0 Features.xlsx
@@ -6130,7 +6130,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6141,29 +6141,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="21" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6184,115 +6182,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6309,72 +6297,66 @@
         <v>3.738124635652542e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.6408359373795689</v>
+        <v>2.320561697002381e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1.890549311146529</v>
+        <v>3.333933087029248e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>2.320561697002381e-06</v>
+        <v>0.05932379738835266</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.333933087029248e-06</v>
+        <v>0.3182044125781489</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.05932379738835266</v>
+        <v>0.10456050614251</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3182044125781489</v>
+        <v>1.869332858794208</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.10456050614251</v>
+        <v>2.041446070683313</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.873095811771003</v>
+        <v>4.842382990689958</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.041446070683313</v>
+        <v>4.618820768680662e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.842382990689958</v>
+        <v>395169615.3789415</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.618820768680662e-16</v>
+        <v>3.013151918962381e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>395169615.3789415</v>
+        <v>72.12705475115999</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>3.013151918962381e-07</v>
+        <v>0.0001442390954670011</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>72.12705475115999</v>
+        <v>8.511046853292383</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001442390954670011</v>
+        <v>1.46480028668126</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.511046853292383</v>
+        <v>0.01044837984756875</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.46480028668126</v>
+        <v>3.199214394900087</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01044837984756875</v>
+        <v>0.9609820475018455</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>3.199214394900087</v>
+        <v>1.540807229318914</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9609820475018455</v>
+        <v>27</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.540807229318914</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.4034631505021752</v>
       </c>
     </row>
@@ -6389,72 +6371,66 @@
         <v>3.312585297632579e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.1444403261897514</v>
+        <v>1.720211851709242e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.4644559386937668</v>
+        <v>3.350801693668402e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.720211851709242e-06</v>
+        <v>0.03642559160723369</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.350801693668402e-06</v>
+        <v>0.2773863112166278</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.03642559160723369</v>
+        <v>0.07810588223069176</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.2773863112166278</v>
+        <v>1.863943815814237</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.07810588223069176</v>
+        <v>2.048938456235805</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.86789507229416</v>
+        <v>4.818126396010051</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>2.048938456235805</v>
+        <v>4.665444238383859e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.818126396010051</v>
+        <v>380857765.9394398</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.665444238383859e-16</v>
+        <v>3.109303134559547e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>380857765.9394398</v>
+        <v>67.67349936427428</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>3.109303134559547e-07</v>
+        <v>0.0001286024000151215</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>67.67349936427428</v>
+        <v>9.030897075529095</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001286024000151215</v>
+        <v>1.200871860484154</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.030897075529095</v>
+        <v>0.01048843905403772</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.200871860484154</v>
+        <v>3.048463244131702</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01048843905403772</v>
+        <v>0.9605018898744369</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.048463244131702</v>
+        <v>1.5218969415921</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9605018898744369</v>
+        <v>40</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.5218969415921</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.3245609724207334</v>
       </c>
     </row>
@@ -6469,72 +6445,66 @@
         <v>3.154050816265469e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.4232273648274104</v>
+        <v>1.258164706286789e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.9780782646099184</v>
+        <v>3.358761847722025e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.258164706286789e-06</v>
+        <v>0.01354833434280346</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.358761847722025e-06</v>
+        <v>0.2237848056226656</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.01354833434280346</v>
+        <v>0.05016009070090529</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.2237848056226656</v>
+        <v>1.860476599275063</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.05016009070090529</v>
+        <v>2.025848714278589</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.86158846052795</v>
+        <v>4.802185655483596</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>2.025848714278589</v>
+        <v>4.696469307868304e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.802185655483596</v>
+        <v>373099761.056734</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.696469307868304e-16</v>
+        <v>3.173354422870512e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>373099761.056734</v>
+        <v>65.37646445317721</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>3.173354422870512e-07</v>
+        <v>0.0001282085966058499</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>65.37646445317721</v>
+        <v>8.981638782123708</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001282085966058499</v>
+        <v>1.231986654097912</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.981638782123708</v>
+        <v>0.01034256636102604</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.231986654097912</v>
+        <v>2.948478537816239</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01034256636102604</v>
+        <v>0.959941152380048</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.948478537816239</v>
+        <v>1.5402182330015</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.959941152380048</v>
+        <v>40</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.5402182330015</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.2934293652429131</v>
       </c>
     </row>
@@ -6549,72 +6519,66 @@
         <v>3.134249892388045e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.44927331142323</v>
+        <v>1.006536412718976e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.9978698314098948</v>
+        <v>3.360002482287239e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.006536412718976e-06</v>
+        <v>-0.004574442611202772</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.360002482287239e-06</v>
+        <v>0.1765935019593142</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.004574442611202772</v>
+        <v>0.03115178240718912</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1765935019593142</v>
+        <v>1.856508339241159</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.03115178240718912</v>
+        <v>2.021250155826296</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.85787528246875</v>
+        <v>4.72628291203117</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.021250155826296</v>
+        <v>4.848528485827029e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.72628291203117</v>
+        <v>358539588.6895604</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.848528485827029e-16</v>
+        <v>3.296671828384079e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>358539588.6895604</v>
+        <v>62.32814237059575</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>3.296671828384079e-07</v>
+        <v>0.0001278102057294972</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>62.32814237059575</v>
+        <v>8.225417344277984</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001278102057294972</v>
+        <v>1.266813581558198</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.225417344277984</v>
+        <v>0.008647317778355148</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.266813581558198</v>
+        <v>3.075678768776688</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.008647317778355148</v>
+        <v>0.9600668789651792</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.075678768776688</v>
+        <v>1.553365269889853</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9600668789651792</v>
+        <v>40</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.553365269889853</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2749438216388147</v>
       </c>
     </row>
@@ -6629,72 +6593,66 @@
         <v>3.165615294770706e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.4423929084499748</v>
+        <v>1.008324321832659e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.019556467853324</v>
+        <v>3.356363830328947e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.008324321832659e-06</v>
+        <v>-0.0177441728889502</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.356363830328947e-06</v>
+        <v>0.1409857552622954</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.0177441728889502</v>
+        <v>0.02016126862588879</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1409857552622954</v>
+        <v>1.844576871935216</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02016126862588879</v>
+        <v>2.091196024758132</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.842454207318922</v>
+        <v>4.693638732882194</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.091196024758132</v>
+        <v>4.916205887441655e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.693638732882194</v>
+        <v>364938474.9176666</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4.916205887441655e-16</v>
+        <v>3.237260421661589e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>364938474.9176666</v>
+        <v>65.47407448843497</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>3.237260421661589e-07</v>
+        <v>0.0001385162136201028</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>65.47407448843497</v>
+        <v>7.682695660688035</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001385162136201028</v>
+        <v>1.471225589803007</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>7.682695660688035</v>
+        <v>0.008175755036818288</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.471225589803007</v>
+        <v>3.135257999721702</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.008175755036818288</v>
+        <v>0.9596478311665619</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.135257999721702</v>
+        <v>1.517845923856023</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9596478311665619</v>
+        <v>20</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.517845923856023</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2694490751474388</v>
       </c>
     </row>
@@ -6709,72 +6667,66 @@
         <v>3.203949358082147e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.4641099855154265</v>
+        <v>1.011304822372901e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.035470101625762</v>
+        <v>3.349027999192261e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.011304822372901e-06</v>
+        <v>-0.02782244719917672</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.349027999192261e-06</v>
+        <v>0.1129116128466229</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.02782244719917672</v>
+        <v>0.01350413677139771</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1129116128466229</v>
+        <v>1.840714708469388</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01350413677139771</v>
+        <v>2.061305379069589</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.842698619110611</v>
+        <v>4.465274302561397</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>2.061305379069589</v>
+        <v>5.431916622874028e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.465274302561397</v>
+        <v>338207471.0625082</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>5.431916622874028e-16</v>
+        <v>3.497174853710332e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>338207471.0625082</v>
+        <v>62.13259451632786</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>3.497174853710332e-07</v>
+        <v>0.0001442178876239015</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>62.13259451632786</v>
+        <v>8.731768882169543</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001442178876239015</v>
+        <v>1.335647128540521</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.731768882169543</v>
+        <v>0.01099571802263743</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.335647128540521</v>
+        <v>3.044289391200674</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01099571802263743</v>
+        <v>0.9594334764603708</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.044289391200674</v>
+        <v>1.525560103962932</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9594334764603708</v>
+        <v>17</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.525560103962932</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2855920468640382</v>
       </c>
     </row>
@@ -6789,72 +6741,66 @@
         <v>3.227917925727024e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.5135807046962512</v>
+        <v>1.016053881738675e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.003167002277117</v>
+        <v>3.338730664347121e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.016053881738675e-06</v>
+        <v>-0.03579679097062292</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>3.338730664347121e-06</v>
+        <v>0.09080790157259494</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.03579679097062292</v>
+        <v>0.009516167806723262</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.09080790157259494</v>
+        <v>1.848753425751726</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.009516167806723262</v>
+        <v>1.973458531715115</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.845184438899475</v>
+        <v>4.382402848459595</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.973458531715115</v>
+        <v>5.639294644477806e-16</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.382402848459595</v>
+        <v>335340948.5669144</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>5.639294644477806e-16</v>
+        <v>3.544912038448466e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>335340948.5669144</v>
+        <v>63.41587123379322</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>3.544912038448466e-07</v>
+        <v>0.0001422463086076774</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>63.41587123379322</v>
+        <v>9.68635409199188</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001422463086076774</v>
+        <v>1.254087447111829</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.68635409199188</v>
+        <v>0.013346324711886</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.254087447111829</v>
+        <v>2.893578580876908</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.013346324711886</v>
+        <v>0.9596762161592896</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.893578580876908</v>
+        <v>1.55606557632604</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9596762161592896</v>
+        <v>17</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.55606557632604</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2785280069884842</v>
       </c>
     </row>
@@ -6869,72 +6815,66 @@
         <v>3.227148796918012e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.5765996971303828</v>
+        <v>1.021365619782638e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-0.9181028067981112</v>
+        <v>3.326058437907495e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.021365619782638e-06</v>
+        <v>-0.04250324201957109</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>3.326058437907495e-06</v>
+        <v>0.07244590467836311</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.04250324201957109</v>
+        <v>0.007046795328378563</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.07244590467836311</v>
+        <v>1.850055834925992</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.007046795328378563</v>
+        <v>1.975606265470465</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.841280646438823</v>
+        <v>4.399876144759113</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.975606265470465</v>
+        <v>5.594592747370317e-16</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.399876144759113</v>
+        <v>340393953.2106288</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>5.594592747370317e-16</v>
+        <v>3.494219652898804e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>340393953.2106288</v>
+        <v>64.82345151589391</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>3.494219652898804e-07</v>
+        <v>0.0001342516968854958</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>64.82345151589391</v>
+        <v>8.981421088751736</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001342516968854958</v>
+        <v>1.27095794357476</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>8.981421088751736</v>
+        <v>0.0108295372816767</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.27095794357476</v>
+        <v>2.949602080211339</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.0108295372816767</v>
+        <v>0.9592786133523802</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.949602080211339</v>
+        <v>1.553916880114294</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9592786133523802</v>
+        <v>34</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.553916880114294</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2605268741243079</v>
       </c>
     </row>
@@ -6949,72 +6889,66 @@
         <v>3.194949891455293e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.638901185442714</v>
+        <v>1.025935349724811e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>-0.8001292251422703</v>
+        <v>3.31138072032877e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.025935349724811e-06</v>
+        <v>-0.04868824929553518</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>3.31138072032877e-06</v>
+        <v>0.05473520228932537</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.04868824929553518</v>
+        <v>0.005361272923308734</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.05473520228932537</v>
+        <v>1.848135299183035</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.005361272923308734</v>
+        <v>1.97687675901618</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.838861859206333</v>
+        <v>4.396602380002935</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.97687675901618</v>
+        <v>5.60292745581464e-16</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.396602380002935</v>
+        <v>333432120.57288</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>5.60292745581464e-16</v>
+        <v>3.564092396619581e-07</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>333432120.57288</v>
+        <v>62.29165482601891</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>3.564092396619581e-07</v>
+        <v>0.0001293906161289954</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>62.29165482601891</v>
+        <v>8.141045857827161</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001293906161289954</v>
+        <v>1.3082814567733</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>8.141045857827161</v>
+        <v>0.008575573687781699</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.3082814567733</v>
+        <v>3.042890989350653</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.008575573687781699</v>
+        <v>0.9580967923554594</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>3.042890989350653</v>
+        <v>1.537071788539254</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9580967923554594</v>
+        <v>34</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.537071788539254</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2626532413304866</v>
       </c>
     </row>
@@ -7029,72 +6963,66 @@
         <v>3.128594154221788e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.6866649135007594</v>
+        <v>1.028593442359962e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>-0.6892758117193098</v>
+        <v>3.295131084638465e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.028593442359962e-06</v>
+        <v>-0.05365838118039717</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>3.295131084638465e-06</v>
+        <v>0.04265271041554437</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.05365838118039717</v>
+        <v>0.004697511077729285</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.04265271041554437</v>
+        <v>1.850257605476495</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.004697511077729285</v>
+        <v>1.921539323114871</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.842416248291662</v>
+        <v>4.350262189111496</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.921539323114871</v>
+        <v>5.72293107802181e-16</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.350262189111496</v>
+        <v>327026340.1285973</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>5.72293107802181e-16</v>
+        <v>3.636388667447712e-07</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>327026340.1285973</v>
+        <v>61.20458869646959</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>3.636388667447712e-07</v>
+        <v>0.0001326408219559499</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>61.20458869646959</v>
+        <v>7.944208502774923</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001326408219559499</v>
+        <v>1.358576026370295</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>7.944208502774923</v>
+        <v>0.008371021794293703</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.358576026370295</v>
+        <v>3.069070643810199</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.008371021794293703</v>
+        <v>0.9553854506690208</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.069070643810199</v>
+        <v>1.553824986841763</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9553854506690208</v>
+        <v>34</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.553824986841763</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.2811463388751688</v>
       </c>
     </row>
@@ -7109,72 +7037,66 @@
         <v>3.035922156203684e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.7146166981327433</v>
+        <v>1.029956753017515e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>-0.6185460980992699</v>
+        <v>3.278091661509386e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.029956753017515e-06</v>
+        <v>-0.05653476647725044</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3.278091661509386e-06</v>
+        <v>0.04102043071058738</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.05653476647725044</v>
+        <v>0.004879266879695199</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.04102043071058738</v>
+        <v>1.820954480379158</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.004879266879695199</v>
+        <v>1.872477757470835</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.798922028664031</v>
+        <v>4.336286357231835</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.872477757470835</v>
+        <v>5.759880489563101e-16</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.336286357231835</v>
+        <v>322029588.0306671</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>5.759880489563101e-16</v>
+        <v>3.668229815724907e-07</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>322029588.0306671</v>
+        <v>59.73172064696</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>3.668229815724907e-07</v>
+        <v>0.0001507587763130455</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>59.73172064696</v>
+        <v>9.343893743902987</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001507587763130455</v>
+        <v>1.374419148683758</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.343893743902987</v>
+        <v>0.01316250005273911</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.374419148683758</v>
+        <v>2.901555532220891</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01316250005273911</v>
+        <v>0.9532265540697674</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.901555532220891</v>
+        <v>1.574495375426454</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9532265540697674</v>
+        <v>37</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.574495375426454</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.340605913274668</v>
       </c>
     </row>
@@ -7189,72 +7111,66 @@
         <v>2.929709410232871e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.7271380873924581</v>
+        <v>1.023663169264e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.5891534914492427</v>
+        <v>3.260955290830632e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.023663169264e-06</v>
+        <v>-0.05823329491539199</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>3.260955290830632e-06</v>
+        <v>0.0426777795032724</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.05823329491539199</v>
+        <v>0.005212581359177836</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.0426777795032724</v>
+        <v>1.819904939575752</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.005212581359177836</v>
+        <v>1.822365898262543</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.792413903623719</v>
+        <v>4.132979763449779</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.822365898262543</v>
+        <v>6.462163886220321e-16</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>4.132979763449779</v>
+        <v>277993105.6378063</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>6.462163886220321e-16</v>
+        <v>4.22322251599039e-07</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>277993105.6378063</v>
+        <v>49.93971029007095</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>4.22322251599039e-07</v>
+        <v>0.0001825002711216215</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>49.93971029007095</v>
+        <v>11.0148958776515</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001825002711216215</v>
+        <v>1.334022890979826</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>11.0148958776515</v>
+        <v>0.02214238033780493</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.334022890979826</v>
+        <v>2.546530125467998</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.02214238033780493</v>
+        <v>0.9532981315708917</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>2.546530125467998</v>
+        <v>1.61209997894376</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9532981315708917</v>
+        <v>37</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.61209997894376</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.4140116073049971</v>
       </c>
     </row>
@@ -7269,72 +7185,66 @@
         <v>2.818799298169865e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.7284573928408371</v>
+        <v>1.005328214348341e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.5936424572265357</v>
+        <v>3.244034132428619e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.005328214348341e-06</v>
+        <v>-0.0594441092573027</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>3.244034132428619e-06</v>
+        <v>0.04422665874861118</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.0594441092573027</v>
+        <v>0.005489082730792291</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.04422665874861118</v>
+        <v>1.820611943339534</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.005489082730792291</v>
+        <v>1.891255750412818</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.792177407113402</v>
+        <v>3.597633485654963</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.891255750412818</v>
+        <v>5.456011793808822e-16</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.597633485654963</v>
+        <v>326195580.9566111</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>5.456011793808822e-16</v>
+        <v>3.593863041119561e-07</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>326195580.9566111</v>
+        <v>58.05390620895579</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>3.593863041119561e-07</v>
+        <v>0.0001551939707667163</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>58.05390620895579</v>
+        <v>9.15015958478358</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001551939707667163</v>
+        <v>1.374167761474293</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>9.15015958478358</v>
+        <v>0.01299368045017993</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.374167761474293</v>
+        <v>2.911030450307424</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01299368045017993</v>
+        <v>0.953196493060394</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.911030450307424</v>
+        <v>1.624221452241595</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.953196493060394</v>
+        <v>37</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.624221452241595</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.3445171277192287</v>
       </c>
     </row>
@@ -7349,72 +7259,66 @@
         <v>2.708696519889775e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.7219259067634669</v>
+        <v>9.796030689161572e-07</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.6237281508886459</v>
+        <v>3.227485600724019e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>9.796030689161572e-07</v>
+        <v>-0.06027969297125081</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>3.227485600724019e-06</v>
+        <v>0.0450728300427365</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.06027969297125081</v>
+        <v>0.005664151633028593</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.0450728300427365</v>
+        <v>1.848325187168114</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.005664151633028593</v>
+        <v>1.885230672254467</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.838117134153775</v>
+        <v>3.734784101519465</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.885230672254467</v>
+        <v>5.062652649856347e-16</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.734784101519465</v>
+        <v>349307308.4418333</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>5.062652649856347e-16</v>
+        <v>3.380372397310202e-07</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>349307308.4418333</v>
+        <v>61.77225790507307</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>3.380372397310202e-07</v>
+        <v>0.0001354287187484852</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>61.77225790507307</v>
+        <v>8.386509025107975</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001354287187484852</v>
+        <v>1.37016277777611</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>8.386509025107975</v>
+        <v>0.009525180344322998</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.37016277777611</v>
+        <v>3.01689581005455</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.009525180344322998</v>
+        <v>0.9527294865558761</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>3.01689581005455</v>
+        <v>1.521340666939797</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9527294865558761</v>
+        <v>36</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.521340666939797</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.3181225269832638</v>
       </c>
     </row>
@@ -7429,72 +7333,66 @@
         <v>2.602887784559108e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.710491049281182</v>
+        <v>9.501381407726244e-07</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.6706437876438383</v>
+        <v>3.21140104643984e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>9.501381407726244e-07</v>
+        <v>-0.06084457038667569</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>3.21140104643984e-06</v>
+        <v>0.0452257383602692</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.06084457038667569</v>
+        <v>0.005746005253660702</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.0452257383602692</v>
+        <v>1.845497618650039</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.005746005253660702</v>
+        <v>2.043339208551497</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.841123000063911</v>
+        <v>4.11645436481138</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>2.043339208551497</v>
+        <v>4.167374440874543e-16</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.11645436481138</v>
+        <v>423088721.7362016</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>4.167374440874543e-16</v>
+        <v>2.788713472599291e-07</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>423088721.7362016</v>
+        <v>74.59769713795667</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>2.788713472599291e-07</v>
+        <v>0.0001322122637800496</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>74.59769713795667</v>
+        <v>8.584839516054288</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001322122637800496</v>
+        <v>1.366016382035603</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>8.584839516054288</v>
+        <v>0.009743973704152956</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.366016382035603</v>
+        <v>2.932352281599519</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.009743973704152956</v>
+        <v>0.9546686469947324</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.932352281599519</v>
+        <v>1.528146879753089</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9546686469947324</v>
+        <v>36</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.528146879753089</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.3171533850270521</v>
       </c>
     </row>
@@ -7509,72 +7407,66 @@
         <v>2.50335501602139e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.6964438691408564</v>
+        <v>9.189927515833021e-07</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.7266975861531</v>
+        <v>3.195823695585767e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>9.189927515833021e-07</v>
+        <v>-0.06119066311127122</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>3.195823695585767e-06</v>
+        <v>0.04480977098719118</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.06119066311127122</v>
+        <v>0.005750557591305812</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.04480977098719118</v>
+        <v>1.85200588003877</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.005750557591305812</v>
+        <v>2.164929250709467</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.849068004222833</v>
+        <v>4.177046990580783</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>2.164929250709467</v>
+        <v>4.04734673792746e-16</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.177046990580783</v>
+        <v>439038976.2676326</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>4.04734673792746e-16</v>
+        <v>2.684251993605764e-07</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>439038976.2676326</v>
+        <v>78.01472217410036</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>2.684251993605764e-07</v>
+        <v>0.0001309327694686037</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>78.01472217410036</v>
+        <v>8.464709187219972</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001309327694686037</v>
+        <v>1.368143610714619</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.464709187219972</v>
+        <v>0.00938150335768758</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.368143610714619</v>
+        <v>2.976536620134606</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.00938150335768758</v>
+        <v>0.9562153449294272</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.976536620134606</v>
+        <v>1.515988325943051</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9562153449294272</v>
+        <v>73</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.515988325943051</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.3169906016483324</v>
       </c>
     </row>
@@ -7589,72 +7481,66 @@
         <v>2.411134348041633e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.6816671171479735</v>
+        <v>8.873889180023289e-07</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.7849572095335997</v>
+        <v>3.180770427091863e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>8.873889180023289e-07</v>
+        <v>-0.0613466242236159</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>3.180770427091863e-06</v>
+        <v>0.04395998231713485</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.0613466242236159</v>
+        <v>0.005694102798705382</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.04395998231713485</v>
+        <v>1.853621083415113</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.005694102798705382</v>
+        <v>2.021505694817447</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.85162965333869</v>
+        <v>4.166962889843338</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>2.021505694817447</v>
+        <v>4.066959697444309e-16</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.166962889843338</v>
+        <v>437119944.8356645</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>4.066959697444309e-16</v>
+        <v>2.703413035177471e-07</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>437119944.8356645</v>
+        <v>77.70896316218109</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.703413035177471e-07</v>
+        <v>0.0001324813773022223</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>77.70896316218109</v>
+        <v>8.138939554291719</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001324813773022223</v>
+        <v>1.405452201930651</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.138939554291719</v>
+        <v>0.00877587605054158</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.405452201930651</v>
+        <v>3.078040200144249</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.00877587605054158</v>
+        <v>0.9562092035330461</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.078040200144249</v>
+        <v>1.496803169898466</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9562092035330461</v>
+        <v>68</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.496803169898466</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.3244606148095961</v>
       </c>
     </row>
@@ -7669,72 +7555,66 @@
         <v>2.326708499206727e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.6677613749538047</v>
+        <v>8.562936481750974e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.8389771135997544</v>
+        <v>3.16624129053058e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>8.562936481750974e-07</v>
+        <v>-0.06134514505608488</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>3.16624129053058e-06</v>
+        <v>0.04275496311496647</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.06134514505608488</v>
+        <v>0.005589383587339893</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.04275496311496647</v>
+        <v>1.853456550707441</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.005589383587339893</v>
+        <v>1.939207289004694</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.850017119796582</v>
+        <v>4.270640801474688</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.939207289004694</v>
+        <v>3.871890300020477e-16</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.270640801474688</v>
+        <v>468156049.4541251</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>3.871890300020477e-16</v>
+        <v>2.528141794582713e-07</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>468156049.4541251</v>
+        <v>84.86025325179733</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>2.528141794582713e-07</v>
+        <v>0.0001411065599160595</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>84.86025325179733</v>
+        <v>8.301496234721396</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001411065599160595</v>
+        <v>1.396811997654213</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.301496234721396</v>
+        <v>0.009724335962185613</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.396811997654213</v>
+        <v>3.071051180754969</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.009724335962185613</v>
+        <v>0.9564906100786706</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.071051180754969</v>
+        <v>1.51215002914497</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9564906100786706</v>
+        <v>108</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.51215002914497</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>108</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.3185475375971204</v>
       </c>
     </row>
@@ -7749,72 +7629,66 @@
         <v>2.250181616219261e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.6558969388684914</v>
+        <v>8.266453380635984e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.883233816832357</v>
+        <v>3.1522190934068e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>8.266453380635984e-07</v>
+        <v>-0.06123504692235923</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>3.1522190934068e-06</v>
+        <v>0.04135713167309699</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.06123504692235923</v>
+        <v>0.0054583761192538</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.04135713167309699</v>
+        <v>1.852871541212592</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.0054583761192538</v>
+        <v>1.93458457414052</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.85248150528231</v>
+        <v>4.561109072264569</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.93458457414052</v>
+        <v>3.394440639893015e-16</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>4.561109072264569</v>
+        <v>532143781.9502953</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>3.394440639893015e-16</v>
+        <v>2.225154295582254e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>532143781.9502953</v>
+        <v>96.12275329294667</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>2.225154295582254e-07</v>
+        <v>0.0001393246000386488</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>96.12275329294667</v>
+        <v>8.961283089132966</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001393246000386488</v>
+        <v>1.268748630576685</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>8.961283089132966</v>
+        <v>0.01118840552440969</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.268748630576685</v>
+        <v>3.0012236256549</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01118840552440969</v>
+        <v>0.9571364913433323</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.0012236256549</v>
+        <v>1.520543362919861</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9571364913433323</v>
+        <v>114</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.520543362919861</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>114</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.3016195370039105</v>
       </c>
     </row>
@@ -7829,72 +7703,66 @@
         <v>2.181235597310016e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.6467803261291046</v>
+        <v>7.986304438754059e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-0.9138676248588764</v>
+        <v>3.138677304291331e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>7.986304438754059e-07</v>
+        <v>-0.06102940135314094</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>3.138677304291331e-06</v>
+        <v>0.03990285233473139</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.06102940135314094</v>
+        <v>0.005315174677690994</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.03990285233473139</v>
+        <v>1.864135440119384</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.005315174677690994</v>
+        <v>2.245390196823065</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.869815037309623</v>
+        <v>4.54882024158232</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>2.245390196823065</v>
+        <v>3.412805864166125e-16</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.54882024158232</v>
+        <v>514848867.7695349</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>3.412805864166125e-16</v>
+        <v>2.302198819469434e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>514848867.7695349</v>
+        <v>90.46302547639249</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>2.302198819469434e-07</v>
+        <v>0.0001300865840002546</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>90.46302547639249</v>
+        <v>8.963427759064865</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001300865840002546</v>
+        <v>1.226019890091821</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>8.963427759064865</v>
+        <v>0.01045155125650938</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.226019890091821</v>
+        <v>2.950524117945183</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01045155125650938</v>
+        <v>0.9571691992995063</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>2.950524117945183</v>
+        <v>1.467442370984281</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9571691992995063</v>
+        <v>111</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.467442370984281</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>111</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.3058414860138354</v>
       </c>
     </row>
@@ -7909,72 +7777,66 @@
         <v>2.119321190290964e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.6409487163551566</v>
+        <v>7.719886274136993e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-0.9281150515987382</v>
+        <v>3.12559032738985e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>7.719886274136993e-07</v>
+        <v>-0.06071647026831089</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>3.12559032738985e-06</v>
+        <v>0.03845177197577846</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.06071647026831089</v>
+        <v>0.005163507068305984</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.03845177197577846</v>
+        <v>1.875889922557273</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.005163507068305984</v>
+        <v>2.17263091400224</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.87506725498361</v>
+        <v>4.555537536552315</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>2.17263091400224</v>
+        <v>3.402748687920644e-16</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.555537536552315</v>
+        <v>504172769.0294249</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>3.402748687920644e-16</v>
+        <v>2.355294976640991e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>504172769.0294249</v>
+        <v>86.49453049848584</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>2.355294976640991e-07</v>
+        <v>0.0001233710641147365</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>86.49453049848584</v>
+        <v>8.177037175290776</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001233710641147365</v>
+        <v>1.255872940397599</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>8.177037175290776</v>
+        <v>0.008249075054406861</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.255872940397599</v>
+        <v>3.070001724224848</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.008249075054406861</v>
+        <v>0.9579140242150976</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.070001724224848</v>
+        <v>1.481595110506626</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9579140242150976</v>
+        <v>111</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.481595110506626</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>111</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.317142605226273</v>
       </c>
     </row>
@@ -7989,72 +7851,66 @@
         <v>2.063787668659282e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.6389921871844977</v>
+        <v>7.463029239275134e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-0.9238485849815121</v>
+        <v>3.112939100842257e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>7.463029239275134e-07</v>
+        <v>-0.06027507661758603</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>3.112939100842257e-06</v>
+        <v>0.03704839494597473</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.06027507661758603</v>
+        <v>0.005004306763548957</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.03704839494597473</v>
+        <v>1.871775008837568</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.005004306763548957</v>
+        <v>2.137675709381862</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.87451059057037</v>
+        <v>4.477912852340047</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>2.137675709381862</v>
+        <v>3.52174461885325e-16</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>4.477912852340047</v>
+        <v>466876104.7019422</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>3.52174461885325e-16</v>
+        <v>2.521246508915049e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>466876104.7019422</v>
+        <v>76.76462862623376</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>2.521246508915049e-07</v>
+        <v>0.0001239605044872598</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>76.76462862623376</v>
+        <v>7.583310433403304</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001239605044872598</v>
+        <v>1.322941929001451</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>7.583310433403304</v>
+        <v>0.007128546791501493</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.322941929001451</v>
+        <v>3.191326221713344</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.007128546791501493</v>
+        <v>0.9570189183785948</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.191326221713344</v>
+        <v>1.497160264076838</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9570189183785948</v>
+        <v>111</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.497160264076838</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>111</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.3328393555706519</v>
       </c>
     </row>
@@ -8069,72 +7925,66 @@
         <v>2.013820023847275e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.641474686473425</v>
+        <v>7.215207597949542e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.8999894562095436</v>
+        <v>3.100708645982297e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>7.215207597949542e-07</v>
+        <v>-0.05971838667574673</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>3.100708645982297e-06</v>
+        <v>0.03585509247325044</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.05971838667574673</v>
+        <v>0.004850749325983118</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.03585509247325044</v>
+        <v>1.866465191478383</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.004850749325983118</v>
+        <v>1.978201163126085</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.875280611986194</v>
+        <v>4.321559554572513</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.978201163126085</v>
+        <v>3.781186768784868e-16</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.321559554572513</v>
+        <v>433173438.5321785</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>3.781186768784868e-16</v>
+        <v>2.717318541491249e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>433173438.5321785</v>
+        <v>70.9498965650639</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>2.717318541491249e-07</v>
+        <v>0.0001401368230666625</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>70.9498965650639</v>
+        <v>8.242499015864992</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001401368230666625</v>
+        <v>1.414663919734271</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>8.242499015864992</v>
+        <v>0.009520726197311716</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.414663919734271</v>
+        <v>3.174720976549953</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.009520726197311716</v>
+        <v>0.9584184407876027</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.174720976549953</v>
+        <v>1.481888371525504</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9584184407876027</v>
+        <v>94</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.481888371525504</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>94</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.3872110753022778</v>
       </c>
     </row>
@@ -8149,72 +7999,66 @@
         <v>1.968257013845413e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.6487295059721754</v>
+        <v>6.977056900073622e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-0.8572570847897869</v>
+        <v>3.088882956992532e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>6.977056900073622e-07</v>
+        <v>-0.0590825484951364</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>3.088882956992532e-06</v>
+        <v>0.03513882660652876</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.0590825484951364</v>
+        <v>0.004724646204392503</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.03513882660652876</v>
+        <v>1.86987332155922</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.004724646204392503</v>
+        <v>1.899903557223027</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.877380979666986</v>
+        <v>4.205358302280498</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.899903557223027</v>
+        <v>4.080157481210665e-16</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.205358302280498</v>
+        <v>399673196.5450894</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>4.080157481210665e-16</v>
+        <v>2.949434609494137e-07</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>399673196.5450894</v>
+        <v>65.17589051074066</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>2.949434609494137e-07</v>
+        <v>0.0001759487061084801</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>65.17589051074066</v>
+        <v>11.16736292603006</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001759487061084801</v>
+        <v>1.151092653284342</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>11.16736292603006</v>
+        <v>0.02194256221007335</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.151092653284342</v>
+        <v>2.889220359076674</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.02194256221007335</v>
+        <v>0.9602261845997956</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>2.889220359076674</v>
+        <v>1.474663142411858</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9602261845997956</v>
+        <v>94</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.474663142411858</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>94</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.5686732886815038</v>
       </c>
     </row>
@@ -8229,72 +8073,66 @@
         <v>1.925597345913421e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.6609568432051176</v>
+        <v>6.745846129640433e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-0.7977023547076385</v>
+        <v>3.077447911834771e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>6.745846129640433e-07</v>
+        <v>-0.05838820552435531</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>3.077447911834771e-06</v>
+        <v>0.03514122877227301</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.05838820552435531</v>
+        <v>0.004643538227312957</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.03514122877227301</v>
+        <v>1.865934022884244</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.004643538227312957</v>
+        <v>1.882363198815874</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.876523813396338</v>
+        <v>4.52469636507759</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.882363198815874</v>
+        <v>4.403778114235667e-16</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>4.52469636507759</v>
+        <v>371875837.9309391</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>4.403778114235667e-16</v>
+        <v>3.165115315434434e-07</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>371875837.9309391</v>
+        <v>60.90056924914508</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>3.165115315434434e-07</v>
+        <v>0.0002216495303014218</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>60.90056924914508</v>
+        <v>13.66662833292174</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0002216495303014218</v>
+        <v>0.9860122935040592</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>13.66662833292174</v>
+        <v>0.04139897447356759</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>0.9860122935040592</v>
+        <v>2.514565624220094</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.04139897447356759</v>
+        <v>0.9604594500928997</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>2.514565624220094</v>
+        <v>1.512761863727621</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9604594500928997</v>
+        <v>94</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.512761863727621</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>94</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.8708862800756947</v>
       </c>
     </row>
@@ -8309,72 +8147,66 @@
         <v>1.884048262574736e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.6783627567410233</v>
+        <v>6.528748131333286e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-0.7238589276447289</v>
+        <v>3.066396423484155e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>6.528748131333286e-07</v>
+        <v>-0.0576351032748031</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>3.066396423484155e-06</v>
+        <v>0.03614829528764608</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.0576351032748031</v>
+        <v>0.004628205287425496</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.03614829528764608</v>
+        <v>1.89956876262973</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.004628205287425496</v>
+        <v>1.78490297827127</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.927074259120514</v>
+        <v>4.65457214006887</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.78490297827127</v>
+        <v>5.195973145907433e-16</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.65457214006887</v>
+        <v>312670135.761096</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>5.195973145907433e-16</v>
+        <v>3.793755772899797e-07</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>312670135.761096</v>
+        <v>50.79719159622154</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>3.793755772899797e-07</v>
+        <v>0.0002390937356373171</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>50.79719159622154</v>
+        <v>12.89863721878088</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.0002390937356373171</v>
+        <v>1.164172597168737</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>12.89863721878088</v>
+        <v>0.03977918251416889</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.164172597168737</v>
+        <v>2.786468080055675</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.03977918251416889</v>
+        <v>0.96263467455403</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>2.786468080055675</v>
+        <v>1.227389104502502</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.96263467455403</v>
+        <v>91</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.227389104502502</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>91</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>1.135351358239129</v>
       </c>
     </row>
@@ -8389,72 +8221,66 @@
         <v>1.841410909836741e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.7010656036244521</v>
+        <v>6.356885997232267e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-0.6384990907796988</v>
+        <v>3.055731556628757e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>6.356885997232267e-07</v>
+        <v>-0.05684989678587054</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>3.055731556628757e-06</v>
+        <v>0.03856323162220718</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.05684989678587054</v>
+        <v>0.0047188925787513</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.03856323162220718</v>
+        <v>1.893067805487973</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.0047188925787513</v>
+        <v>1.740331502737661</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.929890841069216</v>
+        <v>5.000196138108802</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.740331502737661</v>
+        <v>4.662623118003692e-16</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>5.000196138108802</v>
+        <v>348356166.9058129</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>4.662623118003692e-16</v>
+        <v>3.404754670720407e-07</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>348356166.9058129</v>
+        <v>56.58187293051863</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>3.404754670720407e-07</v>
+        <v>0.0002276227104980082</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>56.58187293051863</v>
+        <v>13.99453979675247</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>0.0002276227104980082</v>
+        <v>1.048459369140386</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>13.99453979675247</v>
+        <v>0.044579257788546</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.048459369140386</v>
+        <v>2.895224989905147</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.044579257788546</v>
+        <v>0.9613357941636477</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>2.895224989905147</v>
+        <v>1.214428530850665</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9613357941636477</v>
+        <v>91</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.214428530850665</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>91</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>1.435443784490709</v>
       </c>
     </row>
@@ -8469,72 +8295,66 @@
         <v>1.794905213964081e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.7283918246170717</v>
+        <v>6.241736841304805e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-0.5454201943277166</v>
+        <v>3.045461663563832e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>6.241736841304805e-07</v>
+        <v>-0.05607454812842309</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>3.045461663563832e-06</v>
+        <v>0.0428657071415585</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.05607454812842309</v>
+        <v>0.004981538510101988</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.0428657071415585</v>
+        <v>1.899269713987985</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.004981538510101988</v>
+        <v>1.731538911675802</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.930524427439145</v>
+        <v>4.605792946886829</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.731538911675802</v>
+        <v>5.853872867036116e-16</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>4.605792946886829</v>
+        <v>289429516.2590181</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>5.853872867036116e-16</v>
+        <v>4.123858476546641e-07</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>289429516.2590181</v>
+        <v>49.0375680481003</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>4.123858476546641e-07</v>
+        <v>0.000242729452706028</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>49.0375680481003</v>
+        <v>13.94533406021668</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.000242729452706028</v>
+        <v>1.027688541368757</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>13.94533406021668</v>
+        <v>0.04720416515250825</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.027688541368757</v>
+        <v>2.539658813718041</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.04720416515250825</v>
+        <v>0.9613104335262015</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>2.539658813718041</v>
+        <v>1.214605476970869</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9613104335262015</v>
+        <v>91</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.214605476970869</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>91</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.9516283494885847</v>
       </c>
     </row>
@@ -8549,72 +8369,66 @@
         <v>1.741132502631808e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.7578497788085449</v>
+        <v>6.185400702701527e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-0.4514555013375552</v>
+        <v>3.035611826902467e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>6.185400702701527e-07</v>
+        <v>-0.05523798213153037</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>3.035611826902467e-06</v>
+        <v>0.04974988285107212</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.05523798213153037</v>
+        <v>0.005525273817844232</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.04974988285107212</v>
+        <v>1.886248611939493</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.005525273817844232</v>
+        <v>1.734647332884882</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.905634563139935</v>
+        <v>3.994104070768772</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.734647332884882</v>
+        <v>8.017918873784635e-16</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.994104070768772</v>
+        <v>212596065.6069655</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>8.017918873784635e-16</v>
+        <v>5.575009734261117e-07</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>212596065.6069655</v>
+        <v>36.23865777918747</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>5.575009734261117e-07</v>
+        <v>0.0002546587856541182</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>36.23865777918747</v>
+        <v>14.04122027097443</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.0002546587856541182</v>
+        <v>1.005657346906705</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>14.04122027097443</v>
+        <v>0.05020747359790377</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.005657346906705</v>
+        <v>2.237260280471101</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.05020747359790377</v>
+        <v>0.9611964649157093</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>2.237260280471101</v>
+        <v>1.257765948956903</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9611964649157093</v>
+        <v>91</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.257765948956903</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>91</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.5897472278789452</v>
       </c>
     </row>
@@ -8629,72 +8443,66 @@
         <v>1.677903483920001e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.7849090027620423</v>
+        <v>6.117967214408248e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-0.365749746437257</v>
+        <v>3.026250823726023e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>6.117967214408248e-07</v>
+        <v>-0.05419367128858731</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>3.026250823726023e-06</v>
+        <v>0.05786814640666092</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.05419367128858731</v>
+        <v>0.006284697908317369</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.05786814640666092</v>
+        <v>1.80340170445413</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.006284697908317369</v>
+        <v>1.760695341456269</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.780540356576267</v>
+        <v>5.524674578361332</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.760695341456269</v>
+        <v>1.070331108643474e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>5.524674578361332</v>
+        <v>161821965.7331777</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>1.070331108643474e-15</v>
+        <v>7.150291866422025e-07</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>161821965.7331777</v>
+        <v>28.02806352167262</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>7.150291866422025e-07</v>
+        <v>0.0002372055937879082</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>28.02806352167262</v>
+        <v>12.69564699371224</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>0.0002372055937879082</v>
+        <v>1.114464456514553</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>12.69564699371224</v>
+        <v>0.03823266775777299</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.114464456514553</v>
+        <v>2.449161922362582</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.03823266775777299</v>
+        <v>0.9594032330010689</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>2.449161922362582</v>
+        <v>1.658959399709617</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9594032330010689</v>
+        <v>92</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.658959399709617</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>92</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.4341967896901118</v>
       </c>
     </row>
@@ -8709,72 +8517,66 @@
         <v>1.607738617427893e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.8064600312658035</v>
+        <v>5.986498860774103e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-0.2903291349028905</v>
+        <v>3.017419818940404e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>5.986498860774103e-07</v>
+        <v>-0.05330188836336396</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>3.017419818940404e-06</v>
+        <v>0.06411660072872209</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.05330188836336396</v>
+        <v>0.006951202347831879</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.06411660072872209</v>
+        <v>1.803543760739313</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.006951202347831879</v>
+        <v>1.791781772426835</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.778952675993456</v>
+        <v>4.556355751845951</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.791781772426835</v>
+        <v>1.606865385976339e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.556355751845951</v>
+        <v>108249419.3557173</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1.606865385976339e-15</v>
+        <v>1.068633897604418e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>108249419.3557173</v>
+        <v>18.82914702427543</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>1.068633897604418e-06</v>
+        <v>0.0002118556366117869</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>18.82914702427543</v>
+        <v>9.252464025907088</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>0.0002118556366117869</v>
+        <v>1.76857423074551</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>9.252464025907088</v>
+        <v>0.01813655652273907</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.76857423074551</v>
+        <v>2.93223899512365</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.01813655652273907</v>
+        <v>0.9586488322027056</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>2.93223899512365</v>
+        <v>1.668305931286921</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9586488322027056</v>
+        <v>55</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.668305931286921</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.2410212814246767</v>
       </c>
     </row>
@@ -8789,72 +8591,66 @@
         <v>1.534181807711645e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.821738396966665</v>
+        <v>5.811021848745015e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-0.2235207419253045</v>
+        <v>3.009098005556907e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>5.811021848745015e-07</v>
+        <v>-0.05267998985482403</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>3.009098005556907e-06</v>
+        <v>0.06885459218801745</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.05267998985482403</v>
+        <v>0.007515295202436488</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.06885459218801745</v>
+        <v>1.800489697575697</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.007515295202436488</v>
+        <v>1.776832767259347</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.77542194762952</v>
+        <v>4.036316949676253</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.776832767259347</v>
+        <v>2.047595769323451e-15</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>4.036316949676253</v>
+        <v>83064845.54386188</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>2.047595769323451e-15</v>
+        <v>1.389936745104833e-06</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>83064845.54386188</v>
+        <v>14.12793692346694</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>1.389936745104833e-06</v>
+        <v>0.0001557605767057583</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>14.12793692346694</v>
+        <v>8.737916636627549</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>0.0001557605767057583</v>
+        <v>1.581264928773016</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>8.737916636627549</v>
+        <v>0.01189250494244339</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.581264928773016</v>
+        <v>3.10058375078194</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.01189250494244339</v>
+        <v>0.9586703056957682</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>3.10058375078194</v>
+        <v>1.734550254151157</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9586703056957682</v>
+        <v>47</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.734550254151157</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.1992760296608564</v>
       </c>
     </row>
@@ -8869,72 +8665,66 @@
         <v>1.459706067158354e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.8307819557700568</v>
+        <v>5.609576918808357e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-0.1644647836030155</v>
+        <v>3.001234100980963e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>5.609576918808357e-07</v>
+        <v>-0.05244160617435938</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>3.001234100980963e-06</v>
+        <v>0.07253054256211357</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.05244160617435938</v>
+        <v>0.008009768869463502</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.07253054256211357</v>
+        <v>1.796830322649978</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.008009768869463502</v>
+        <v>1.81098768762944</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.771668658603276</v>
+        <v>3.777833859301907</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.81098768762944</v>
+        <v>2.337378459703124e-15</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>3.777833859301907</v>
+        <v>73996926.46944995</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>2.337378459703124e-15</v>
+        <v>1.54757699628716e-06</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>73996926.46944995</v>
+        <v>12.79842123480734</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>1.54757699628716e-06</v>
+        <v>0.0001379279814003116</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>12.79842123480734</v>
+        <v>9.436154007224875</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>0.0001379279814003116</v>
+        <v>1.206860241780649</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>9.436154007224875</v>
+        <v>0.01228124572952195</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.206860241780649</v>
+        <v>3.011753814805556</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.01228124572952195</v>
+        <v>0.9565615919749018</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>3.011753814805556</v>
+        <v>1.713765086347725</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9565615919749018</v>
+        <v>7</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.713765086347725</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.1935090133854</v>
       </c>
     </row>
@@ -8949,72 +8739,66 @@
         <v>1.386001231759005e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.8341465157871812</v>
+        <v>5.392928200025952e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-0.1120310731550953</v>
+        <v>2.993775376672102e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>5.392928200025952e-07</v>
+        <v>-0.05243718397302603</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>2.993775376672102e-06</v>
+        <v>0.07570541708647141</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.05243718397302603</v>
+        <v>0.008479680096459136</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.07570541708647141</v>
+        <v>1.793532669894121</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.008479680096459136</v>
+        <v>1.811086056936357</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.767251107077591</v>
+        <v>3.710532277751651</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.811086056936357</v>
+        <v>2.422938100077348e-15</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>3.710532277751651</v>
+        <v>71700477.76222293</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>2.422938100077348e-15</v>
+        <v>1.60305961585929e-06</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>71700477.76222293</v>
+        <v>12.45622424802087</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>1.60305961585929e-06</v>
+        <v>0.0001416616952466906</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>12.45622424802087</v>
+        <v>10.32346986060968</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001416616952466906</v>
+        <v>1.14352615399444</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>10.32346986060968</v>
+        <v>0.01509745775381833</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.14352615399444</v>
+        <v>2.834211776171999</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.01509745775381833</v>
+        <v>0.9558801021217945</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>2.834211776171999</v>
+        <v>1.70002396415401</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9558801021217945</v>
+        <v>1</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.70002396415401</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.1928942938145021</v>
       </c>
     </row>
@@ -9029,72 +8813,66 @@
         <v>1.314025814542305e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.8322385046225202</v>
+        <v>5.17170110429511e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-0.06518883318857815</v>
+        <v>2.986692744769502e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>5.17170110429511e-07</v>
+        <v>-0.05251123117018688</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>2.986692744769502e-06</v>
+        <v>0.07877654823231618</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.05251123117018688</v>
+        <v>0.008961695199482504</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.07877654823231618</v>
+        <v>1.787374968139186</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.008961695199482504</v>
+        <v>1.806730722791629</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.757157219396167</v>
+        <v>3.699150360991187</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.806730722791629</v>
+        <v>2.437871316605839e-15</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>3.699150360991187</v>
+        <v>70816216.24968496</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>2.437871316605839e-15</v>
+        <v>1.618569675152462e-06</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>70816216.24968496</v>
+        <v>12.22576980875394</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>1.618569675152462e-06</v>
+        <v>0.0001463919907149479</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>12.22576980875394</v>
+        <v>10.3576656957943</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>0.0001463919907149479</v>
+        <v>1.153799125966606</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>10.3576656957943</v>
+        <v>0.01570511409465688</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.153799125966606</v>
+        <v>2.870614494646808</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.01570511409465688</v>
+        <v>0.955581472355213</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>2.870614494646808</v>
+        <v>1.734349798844134</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.955581472355213</v>
+        <v>10</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.734349798844134</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.1870366168393658</v>
       </c>
     </row>
@@ -9109,72 +8887,66 @@
         <v>1.244169992441487e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.8247504853449016</v>
+        <v>4.952341262479603e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-0.02429965872940443</v>
+        <v>2.979977421692193e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>4.952341262479603e-07</v>
+        <v>-0.05248040317203611</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>2.979977421692193e-06</v>
+        <v>0.08201121450489145</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.05248040317203611</v>
+        <v>0.009478386835245722</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.08201121450489145</v>
+        <v>1.779857489861237</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.009478386835245722</v>
+        <v>1.792800461503343</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.749626230841424</v>
+        <v>3.698992887027428</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.792800461503343</v>
+        <v>2.438078891717676e-15</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>3.698992887027428</v>
+        <v>71624091.96937232</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>2.438078891717676e-15</v>
+        <v>1.600399620777733e-06</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>71624091.96937232</v>
+        <v>12.50737043730968</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>1.600399620777733e-06</v>
+        <v>0.0001678185738569524</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>12.50737043730968</v>
+        <v>9.350149816562576</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0.0001678185738569524</v>
+        <v>1.417186012882121</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>9.350149816562576</v>
+        <v>0.01467158943221111</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.417186012882121</v>
+        <v>2.96507972394633</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.01467158943221111</v>
+        <v>0.9563234824725256</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>2.96507972394633</v>
+        <v>1.699414360864171</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9563234824725256</v>
+        <v>10</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.699414360864171</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.1704428164910908</v>
       </c>
     </row>
@@ -9551,7 +9323,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.331194753721003</v>
+        <v>1.331928795134014</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.899601599754027</v>
@@ -9640,7 +9412,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.333034317398601</v>
+        <v>1.335159798946019</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.876214151419571</v>
@@ -9729,7 +9501,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.336043306418124</v>
+        <v>1.340306221557445</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.953357062221075</v>
@@ -9818,7 +9590,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.366590728590238</v>
+        <v>1.368929348851996</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.945588006516428</v>
@@ -9907,7 +9679,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.393015454468432</v>
+        <v>1.397929153654487</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.879549283855501</v>
@@ -9996,7 +9768,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.429442724806776</v>
+        <v>1.428092501542759</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>1.795030801402164</v>
@@ -10085,7 +9857,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.46854767245053</v>
+        <v>1.467911443677529</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>1.830810862889659</v>
@@ -10174,7 +9946,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.486426339782347</v>
+        <v>1.483507976239533</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>1.859797581790122</v>
@@ -10263,7 +10035,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.499779600692462</v>
+        <v>1.5005827828157</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>1.884794633249733</v>
@@ -10352,7 +10124,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.480963704303099</v>
+        <v>1.482883850628464</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>1.86195001880353</v>
@@ -10441,7 +10213,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.484371529117819</v>
+        <v>1.484955413156432</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>1.876950100707585</v>
@@ -10530,7 +10302,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.453529920663869</v>
+        <v>1.455929530281733</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>1.877705755852404</v>
@@ -10619,7 +10391,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.459697568539257</v>
+        <v>1.461609599965329</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>1.871693021704344</v>
@@ -10708,7 +10480,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.466053636968434</v>
+        <v>1.468583908355541</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.877891735947262</v>
@@ -10797,7 +10569,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.460192417659762</v>
+        <v>1.466529696748384</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.838757332317399</v>
@@ -10886,7 +10658,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.542199075475107</v>
+        <v>1.540563262653219</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.313898740886835</v>
@@ -10975,7 +10747,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.572964977057461</v>
+        <v>1.570857344680406</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.427650024339131</v>
@@ -11064,7 +10836,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.581904662569374</v>
+        <v>1.575835490918964</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.562085624668894</v>
@@ -11153,7 +10925,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.547635166167451</v>
+        <v>1.545238442293173</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.431283810749948</v>
@@ -11242,7 +11014,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.547660684833012</v>
+        <v>1.537868126561088</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.477493623038759</v>
@@ -11331,7 +11103,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.570560735659335</v>
+        <v>1.555001242789861</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.488736485779146</v>
@@ -11420,7 +11192,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.575966225159107</v>
+        <v>1.558570561552121</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.552408724090298</v>
@@ -11509,7 +11281,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.551343850897736</v>
+        <v>1.54170085753819</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.54553934184819</v>
@@ -11598,7 +11370,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.555769473376244</v>
+        <v>1.547731544250592</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.429388666870187</v>
@@ -11687,7 +11459,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.550732808209476</v>
+        <v>1.543271658982259</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.42891974055349</v>
@@ -11776,7 +11548,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.550131175013781</v>
+        <v>1.537083646297597</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.484581400473543</v>
@@ -11865,7 +11637,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.589980512756689</v>
+        <v>1.57258515923081</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.625930273147269</v>
@@ -11954,7 +11726,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.59952418366365</v>
+        <v>1.579423082838939</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.381627818699692</v>
@@ -12043,7 +11815,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.600799255793418</v>
+        <v>1.578417991203844</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.312807558884292</v>
@@ -12132,7 +11904,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.617846101439715</v>
+        <v>1.588271875993368</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.315299475266756</v>
@@ -12221,7 +11993,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.643066645800205</v>
+        <v>1.612727134332852</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.485994427878545</v>
@@ -12310,7 +12082,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.60276197504349</v>
+        <v>1.580718790145195</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.583787115750404</v>
@@ -12399,7 +12171,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.593260339056235</v>
+        <v>1.574811979386422</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.465048741248054</v>
@@ -12488,7 +12260,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.629701279435773</v>
+        <v>1.601212160072042</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.446233430849866</v>
@@ -12577,7 +12349,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.621435269346097</v>
+        <v>1.598266734560735</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.481824510913029</v>
@@ -12666,7 +12438,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.62512329908442</v>
+        <v>1.606178226193352</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.544996641622772</v>
@@ -12755,7 +12527,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.595726225031405</v>
+        <v>1.585933321317101</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.463890972330972</v>
@@ -12844,7 +12616,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.575216649016622</v>
+        <v>1.569433212037283</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.412822365416934</v>
@@ -12933,7 +12705,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.56900650126314</v>
+        <v>1.558620716898904</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.490414458377253</v>
@@ -13022,7 +12794,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.554689884189624</v>
+        <v>1.535157948129736</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.296166908972919</v>
@@ -13111,7 +12883,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.520771675518093</v>
+        <v>1.521046777887997</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.267257929228974</v>
@@ -13200,7 +12972,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.52136430791093</v>
+        <v>1.523266936143415</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.352136426692561</v>
@@ -13289,7 +13061,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.51568336007638</v>
+        <v>1.516186971083511</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.344148730619883</v>
@@ -13378,7 +13150,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.518586836514872</v>
+        <v>1.517415754647296</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.37709324649448</v>
@@ -13467,7 +13239,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.517286995249514</v>
+        <v>1.515492005807229</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.290580645552988</v>
@@ -13556,7 +13328,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.496505873703354</v>
+        <v>1.494414431870596</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.211418732816016</v>
@@ -13645,7 +13417,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.518057603438941</v>
+        <v>1.515243141122682</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.296856677801228</v>
@@ -13734,7 +13506,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.501639102547572</v>
+        <v>1.497494016934522</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.275036572343145</v>
@@ -13823,7 +13595,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.479663329969933</v>
+        <v>1.479257419210231</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.35114115218286</v>
@@ -13912,7 +13684,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.483583991000866</v>
+        <v>1.491571692612157</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.32476958451802</v>
@@ -14001,7 +13773,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.487915616918061</v>
+        <v>1.490795509246712</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.191346302978766</v>
@@ -14090,7 +13862,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.497913129201264</v>
+        <v>1.495647604787237</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.285946253904678</v>
@@ -14179,7 +13951,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.514140363889986</v>
+        <v>1.509606605589706</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.292177019679101</v>
@@ -14268,7 +14040,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.520550086381127</v>
+        <v>1.51747864550405</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.412987074544388</v>
@@ -14357,7 +14129,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.582772411789329</v>
+        <v>1.568986647279933</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.297989153278979</v>
@@ -14446,7 +14218,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.594398210311058</v>
+        <v>1.58027335898449</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.654668247609577</v>
@@ -14535,7 +14307,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.535649272725501</v>
+        <v>1.530867198618235</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.614381845021893</v>
@@ -14624,7 +14396,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.53419990117112</v>
+        <v>1.532070336038913</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.682670684543876</v>
@@ -14713,7 +14485,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.519684237632882</v>
+        <v>1.525134853819245</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.570624844622829</v>
@@ -14802,7 +14574,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.506412335609233</v>
+        <v>1.509246029764509</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.404390703123396</v>
@@ -14891,7 +14663,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.527905816223577</v>
+        <v>1.529037703135211</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.645498184192232</v>
@@ -14980,7 +14752,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.535137810290546</v>
+        <v>1.53620933878438</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.645495963022635</v>
@@ -15069,7 +14841,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.557932923100346</v>
+        <v>1.556131350731149</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.466350077280555</v>
@@ -15158,7 +14930,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.592112917862081</v>
+        <v>1.571467371922591</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.422131544202817</v>
@@ -15247,7 +15019,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.56197267092505</v>
+        <v>1.55192648036496</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.723234616760259</v>
@@ -15336,7 +15108,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.550682183449268</v>
+        <v>1.544176278542232</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.498754183084483</v>
@@ -15425,7 +15197,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.531052532135749</v>
+        <v>1.528221284076268</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.55332135317521</v>
@@ -15514,7 +15286,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.542404732689836</v>
+        <v>1.537610132376384</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.508944489631417</v>
@@ -15603,7 +15375,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.503965759639654</v>
+        <v>1.50004316653792</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.441529239403892</v>
@@ -15692,7 +15464,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.457185848568161</v>
+        <v>1.457591869767874</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.423510554118617</v>
@@ -15781,7 +15553,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.45732028745226</v>
+        <v>1.462691171940748</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.123556060633965</v>
@@ -15870,7 +15642,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.474134048123748</v>
+        <v>1.477402902272084</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.425206609615549</v>
@@ -15959,7 +15731,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.45946502043824</v>
+        <v>1.465021544076232</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.456843331381307</v>
@@ -16048,7 +15820,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.443972226120909</v>
+        <v>1.450808222142323</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.478826341725223</v>
@@ -16137,7 +15909,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.455165574191502</v>
+        <v>1.456655474891827</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.526230269649608</v>
@@ -16226,7 +15998,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.436964484119582</v>
+        <v>1.448877171926094</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.476407736179765</v>
@@ -16315,7 +16087,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.428988050665077</v>
+        <v>1.441149396786512</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.526382569306206</v>
@@ -16404,7 +16176,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.428147483002652</v>
+        <v>1.441402450410441</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.360352029853824</v>
@@ -16493,7 +16265,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.424142070058011</v>
+        <v>1.437409380242089</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.12487218567367</v>
@@ -16582,7 +16354,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.413577737402427</v>
+        <v>1.42613009801067</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.492422813218506</v>
@@ -16671,7 +16443,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.422403080942565</v>
+        <v>1.43694175040258</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.226287125521644</v>
@@ -16957,7 +16729,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.471235749059916</v>
+        <v>1.483671120329226</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.687606916273759</v>
@@ -17046,7 +16818,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.467157928738104</v>
+        <v>1.477652324994847</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.408985634315561</v>
@@ -17135,7 +16907,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.477423688080206</v>
+        <v>1.484340144359472</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.454223251225503</v>
@@ -17224,7 +16996,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.483248215037203</v>
+        <v>1.494040707197145</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.401886545616511</v>
@@ -17313,7 +17085,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.49796343821912</v>
+        <v>1.506378724412165</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.269189924969082</v>
@@ -17402,7 +17174,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.513338607624324</v>
+        <v>1.51153266724548</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.086694395858096</v>
@@ -17491,7 +17263,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.533602489541565</v>
+        <v>1.523453519263407</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.479914096028061</v>
@@ -17580,7 +17352,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.544551987742069</v>
+        <v>1.526738449120904</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.654910477972674</v>
@@ -17669,7 +17441,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.572570416192289</v>
+        <v>1.555974910286364</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.891133977660217</v>
@@ -17758,7 +17530,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.539721812538117</v>
+        <v>1.52718479601326</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.823459772917422</v>
@@ -17847,7 +17619,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.5244044607225</v>
+        <v>1.516034172436505</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.632490084700941</v>
@@ -17936,7 +17708,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.443957876431465</v>
+        <v>1.439300424730133</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.093484513363493</v>
@@ -18025,7 +17797,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.445833605567214</v>
+        <v>1.440440460858771</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.037894350827557</v>
@@ -18114,7 +17886,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.439118131218746</v>
+        <v>1.432289426654999</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.098895651871572</v>
@@ -18203,7 +17975,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.440634707305458</v>
+        <v>1.435084160139257</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.028738675908214</v>
@@ -18292,7 +18064,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.445805207498199</v>
+        <v>1.439791344455029</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.174584178627301</v>
@@ -18381,7 +18153,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.452583361143395</v>
+        <v>1.453825517070175</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.0997151281284</v>
@@ -18470,7 +18242,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.457555280263733</v>
+        <v>1.461903371321037</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.107724645202023</v>
@@ -18559,7 +18331,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.46166039853476</v>
+        <v>1.463271321147272</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.186547802420158</v>
@@ -18648,7 +18420,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.458512313269448</v>
+        <v>1.463066787059962</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.175410996242146</v>
@@ -18737,7 +18509,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.457244159540398</v>
+        <v>1.450447125922864</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.166227667409188</v>
@@ -18826,7 +18598,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.465499273052653</v>
+        <v>1.452989005181972</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.218659703237054</v>
@@ -18915,7 +18687,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.447650445373077</v>
+        <v>1.436244665837375</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.234685832672633</v>
@@ -19004,7 +18776,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.430372208787142</v>
+        <v>1.420003395567736</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.263590317790972</v>
@@ -19093,7 +18865,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.443581345415754</v>
+        <v>1.431508930187049</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.180943732379273</v>
@@ -19182,7 +18954,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.443239587065578</v>
+        <v>1.429194343344508</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.24713754157001</v>
@@ -19271,7 +19043,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.50822469139207</v>
+        <v>1.487164372445916</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.462495213127075</v>
@@ -19360,7 +19132,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.511728199631249</v>
+        <v>1.488428476295369</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.763785561091407</v>
@@ -19449,7 +19221,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.504698532154177</v>
+        <v>1.48371423343439</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.733519933758337</v>
@@ -19538,7 +19310,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.51374184646761</v>
+        <v>1.491102125712672</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.568525572520584</v>
@@ -19627,7 +19399,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.537366314489938</v>
+        <v>1.510665148120184</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.906014422144506</v>
@@ -19716,7 +19488,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.510736475346742</v>
+        <v>1.482523680713466</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.722551155442365</v>
@@ -19805,7 +19577,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.486622665918111</v>
+        <v>1.45915542422629</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.672625437748503</v>
@@ -19894,7 +19666,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.491942352318791</v>
+        <v>1.465713162983778</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.590911157439435</v>
@@ -19983,7 +19755,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.473804378051543</v>
+        <v>1.447700894556488</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.722638750188937</v>
@@ -20072,7 +19844,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.461975347696946</v>
+        <v>1.44899438203044</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.533272712232828</v>
@@ -20161,7 +19933,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.452818499945701</v>
+        <v>1.447527758459425</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.552529594586781</v>
@@ -20250,7 +20022,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.443525078771339</v>
+        <v>1.440399864500395</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.849198933282131</v>
@@ -20339,7 +20111,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.429898292755183</v>
+        <v>1.425596545369156</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.571556865740524</v>
@@ -20428,7 +20200,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.406324473125399</v>
+        <v>1.399841779019723</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.247402532363629</v>
@@ -20517,7 +20289,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.385460074629179</v>
+        <v>1.386217472102065</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.314644300128467</v>
@@ -20606,7 +20378,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.377991092976662</v>
+        <v>1.375015943086818</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.25878517761339</v>
@@ -20695,7 +20467,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.37342724456773</v>
+        <v>1.369980409351842</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.232619718736006</v>
@@ -20784,7 +20556,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.370911151151805</v>
+        <v>1.364579498670764</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.206021109309196</v>
@@ -20873,7 +20645,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.370615472538272</v>
+        <v>1.364293667033548</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.333502094359491</v>
@@ -20962,7 +20734,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.365291035208733</v>
+        <v>1.355048506932607</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.220185482201809</v>
@@ -21051,7 +20823,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.374559090354857</v>
+        <v>1.360539450280097</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.406574891792159</v>
@@ -21140,7 +20912,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.37112073130143</v>
+        <v>1.357417262537497</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.356732645245651</v>
@@ -21229,7 +21001,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.363873176995727</v>
+        <v>1.349643188629312</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.324732535657232</v>
@@ -21318,7 +21090,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.380445496509587</v>
+        <v>1.36624207014933</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.391749499776551</v>
@@ -21407,7 +21179,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.396350606960742</v>
+        <v>1.380724056327156</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.185453587445629</v>
@@ -21496,7 +21268,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.416736500131523</v>
+        <v>1.400577310266039</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.285475440789741</v>
@@ -21585,7 +21357,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.423982981203454</v>
+        <v>1.407092313510128</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.275220061004486</v>
@@ -21674,7 +21446,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.472880811011374</v>
+        <v>1.445332837485088</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.971387718654422</v>
@@ -21763,7 +21535,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.499299548289979</v>
+        <v>1.477042127411901</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.26831511185714</v>
@@ -21852,7 +21624,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.520934949540832</v>
+        <v>1.492588405471932</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.631502630701887</v>
@@ -21941,7 +21713,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.509294344497859</v>
+        <v>1.487941479232974</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.303837640466742</v>
@@ -22030,7 +21802,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.510160011160742</v>
+        <v>1.498378982150732</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.481528971880464</v>
@@ -22119,7 +21891,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.520912353274255</v>
+        <v>1.504940490041557</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.45501926230419</v>
@@ -22208,7 +21980,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.511943084462665</v>
+        <v>1.490042267489377</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.439588851204808</v>
@@ -22297,7 +22069,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.534593333233603</v>
+        <v>1.507127224358367</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.282288258223003</v>
@@ -22386,7 +22158,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.546839877047021</v>
+        <v>1.522180167872491</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.263799063421753</v>
@@ -22475,7 +22247,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.572506043410705</v>
+        <v>1.545665985072907</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.780415368854192</v>
@@ -22564,7 +22336,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.581913738381938</v>
+        <v>1.552315984635161</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.766753940973436</v>
@@ -22653,7 +22425,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.551201213358469</v>
+        <v>1.524619905705424</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.68557336544628</v>
@@ -22742,7 +22514,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.541024949528447</v>
+        <v>1.519047102216204</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.594618431333714</v>
@@ -22831,7 +22603,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.513473925713388</v>
+        <v>1.490605991174803</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.52391298881749</v>
@@ -22920,7 +22692,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.488010677407966</v>
+        <v>1.464924373339268</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.407203971609096</v>
@@ -23009,7 +22781,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.474023246745525</v>
+        <v>1.453046375423349</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.282928191317376</v>
@@ -23098,7 +22870,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.474398450680012</v>
+        <v>1.454522696231237</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.397333815604194</v>
@@ -23187,7 +22959,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.478675817256794</v>
+        <v>1.466215720097153</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.297831314081777</v>
@@ -23276,7 +23048,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.538088064128412</v>
+        <v>1.524681051710764</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.563348021213277</v>
@@ -23365,7 +23137,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.517724824329447</v>
+        <v>1.508524906269477</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.641954281195705</v>
@@ -23454,7 +23226,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.505483182252561</v>
+        <v>1.503697838648114</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.609177235667446</v>
@@ -23543,7 +23315,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.502288950505414</v>
+        <v>1.505438440063642</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.604015561845289</v>
@@ -23632,7 +23404,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.49581146167959</v>
+        <v>1.508564364137126</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.656734799706414</v>
@@ -23721,7 +23493,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.484923569503866</v>
+        <v>1.502040251834595</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.676033238043457</v>
@@ -23810,7 +23582,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.479601137886473</v>
+        <v>1.500081188191256</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.537214327861276</v>
@@ -23899,7 +23671,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.492200112791896</v>
+        <v>1.508146035222111</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.473551232648486</v>
@@ -23988,7 +23760,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.500813617401015</v>
+        <v>1.516525569446589</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.489320545098886</v>
@@ -24077,7 +23849,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.501364207006378</v>
+        <v>1.516714571435599</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.71766384416207</v>
@@ -24363,7 +24135,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.536783868231828</v>
+        <v>1.52136147353062</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.549192507179402</v>
@@ -24452,7 +24224,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.535124061761426</v>
+        <v>1.52222793625289</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.42388553041701</v>
@@ -24541,7 +24313,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.547937604195484</v>
+        <v>1.530945827283265</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.299053065621894</v>
@@ -24630,7 +24402,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.566867763638641</v>
+        <v>1.5409954205511</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.468001118881474</v>
@@ -24719,7 +24491,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.584372143435055</v>
+        <v>1.560856008491387</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.53124038216682</v>
@@ -24808,7 +24580,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.637817341465337</v>
+        <v>1.595535207554205</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.674702575693381</v>
@@ -24897,7 +24669,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.668930542298362</v>
+        <v>1.620897244102651</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.724109570243765</v>
@@ -24986,7 +24758,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.680778227752622</v>
+        <v>1.619392453582642</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.4470227274239</v>
@@ -25075,7 +24847,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.69574594210321</v>
+        <v>1.627189477336095</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.295245494137577</v>
@@ -25164,7 +24936,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.683659238775101</v>
+        <v>1.607416012739653</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.193525053893514</v>
@@ -25253,7 +25025,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.686702477852673</v>
+        <v>1.607926881310893</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.343278280633276</v>
@@ -25342,7 +25114,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.660712542276376</v>
+        <v>1.588048988792423</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.334731044999727</v>
@@ -25431,7 +25203,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.668679396094589</v>
+        <v>1.594055405403657</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.118634857679751</v>
@@ -25520,7 +25292,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.673862654430034</v>
+        <v>1.606265432210724</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.407701067601651</v>
@@ -25609,7 +25381,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.671454893654257</v>
+        <v>1.605502424959654</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.300147831741064</v>
@@ -25698,7 +25470,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.678045148736391</v>
+        <v>1.607313780742819</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.281409524539781</v>
@@ -25787,7 +25559,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.695797224060839</v>
+        <v>1.618961597724944</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.061778308443546</v>
@@ -25876,7 +25648,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.696570341179814</v>
+        <v>1.621324213621909</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.497023811877308</v>
@@ -25965,7 +25737,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.691262017319247</v>
+        <v>1.62382282312788</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.259465112107697</v>
@@ -26054,7 +25826,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.694589991256328</v>
+        <v>1.61848079473279</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.54177011492088</v>
@@ -26143,7 +25915,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.703072714560349</v>
+        <v>1.619288388388405</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.469197188355777</v>
@@ -26232,7 +26004,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.699755288853543</v>
+        <v>1.616917573593946</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.200989949769804</v>
@@ -26321,7 +26093,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.68888387578282</v>
+        <v>1.609354548652481</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.385628585321808</v>
@@ -26410,7 +26182,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.69733193472252</v>
+        <v>1.620860245844408</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.536000379556877</v>
@@ -26499,7 +26271,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.70213871506823</v>
+        <v>1.625407659302025</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.142567726853301</v>
@@ -26588,7 +26360,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.689037351437617</v>
+        <v>1.61541765995707</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.016549352835686</v>
@@ -26677,7 +26449,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.710436767236667</v>
+        <v>1.631505862035904</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.438517000011367</v>
@@ -26766,7 +26538,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.707005543986377</v>
+        <v>1.620668209719093</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.83879422380131</v>
@@ -26855,7 +26627,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.699443984846835</v>
+        <v>1.603461395926539</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.981055569930441</v>
@@ -26944,7 +26716,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.708219918304098</v>
+        <v>1.605641484520774</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.067573835066613</v>
@@ -27033,7 +26805,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.711807904980315</v>
+        <v>1.613398601293907</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.414765548146224</v>
@@ -27122,7 +26894,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.70074313508114</v>
+        <v>1.606283922086069</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.154335003425528</v>
@@ -27211,7 +26983,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.687823251472345</v>
+        <v>1.598423786403631</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.105955466879278</v>
@@ -27300,7 +27072,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.692458177297214</v>
+        <v>1.59262756589741</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.196476220232185</v>
@@ -27389,7 +27161,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.688755494686405</v>
+        <v>1.591540479959605</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.105712532870474</v>
@@ -27478,7 +27250,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.703344503626825</v>
+        <v>1.600203158203467</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.95524666454726</v>
@@ -27567,7 +27339,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.68543978578372</v>
+        <v>1.594750420602749</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.852217434852672</v>
@@ -27656,7 +27428,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.67611984802783</v>
+        <v>1.597821278921371</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.979156280147655</v>
@@ -27745,7 +27517,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.663132185253967</v>
+        <v>1.579070164780467</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.303673249419022</v>
@@ -27834,7 +27606,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.669047574507195</v>
+        <v>1.588703786596871</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.21608356998865</v>
@@ -27923,7 +27695,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.679877939319729</v>
+        <v>1.598541346740278</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.131295103712894</v>
@@ -28012,7 +27784,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.673478818853515</v>
+        <v>1.592055458062709</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.173634724966925</v>
@@ -28101,7 +27873,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.6665046199034</v>
+        <v>1.584956648388983</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.457190846597624</v>
@@ -28190,7 +27962,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.667723536211699</v>
+        <v>1.580523474837491</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.182993627178452</v>
@@ -28279,7 +28051,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.659059133118252</v>
+        <v>1.56844687779872</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.073031954523442</v>
@@ -28368,7 +28140,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.653216361995516</v>
+        <v>1.561014623490333</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.067383276379481</v>
@@ -28457,7 +28229,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.667468245581669</v>
+        <v>1.568916981674287</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.127144588367936</v>
@@ -28546,7 +28318,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.656686375518574</v>
+        <v>1.564741778827031</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.186818374175783</v>
@@ -28635,7 +28407,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.652989632250236</v>
+        <v>1.573401194381491</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.315139489352042</v>
@@ -28724,7 +28496,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.652692142822271</v>
+        <v>1.578883154195228</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.165758287617832</v>
@@ -28813,7 +28585,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.656909213239393</v>
+        <v>1.577645674877955</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.109501963825343</v>
@@ -28902,7 +28674,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.67033455238866</v>
+        <v>1.580984023993454</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.053101508380478</v>
@@ -28991,7 +28763,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.671071214862885</v>
+        <v>1.577288796987632</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.275403576718098</v>
@@ -29080,7 +28852,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.672587600424543</v>
+        <v>1.586708135057225</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.151715835312078</v>
@@ -29169,7 +28941,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.676849038009536</v>
+        <v>1.583555633562004</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.91780668040468</v>
@@ -29258,7 +29030,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.671335797714935</v>
+        <v>1.575078948748062</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.57487783292876</v>
@@ -29347,7 +29119,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.646257541165279</v>
+        <v>1.562467572616976</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.427225934569798</v>
@@ -29436,7 +29208,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.654431599627156</v>
+        <v>1.571591770347215</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.322737778831587</v>
@@ -29525,7 +29297,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.653031731790632</v>
+        <v>1.588183626142405</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.148249260369199</v>
@@ -29614,7 +29386,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.642358012252724</v>
+        <v>1.581038798374637</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.015132925979788</v>
@@ -29703,7 +29475,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.650462585521743</v>
+        <v>1.587731542048262</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.42196821603243</v>
@@ -29792,7 +29564,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.65002522699904</v>
+        <v>1.583262734512565</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.194466974123542</v>
@@ -29881,7 +29653,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.662476451491978</v>
+        <v>1.584862573311276</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.351649321602658</v>
@@ -29970,7 +29742,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.674406658953048</v>
+        <v>1.584584219005352</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.379100101481124</v>
@@ -30059,7 +29831,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.666280258640103</v>
+        <v>1.574530260741788</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.264004997504951</v>
@@ -30148,7 +29920,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.661974720077203</v>
+        <v>1.582463457079614</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.535011289962758</v>
@@ -30237,7 +30009,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.656495932627428</v>
+        <v>1.582327886880927</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.332512144483117</v>
@@ -30326,7 +30098,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.672709289373756</v>
+        <v>1.593701045746476</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.370662589465882</v>
@@ -30415,7 +30187,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.656370321656686</v>
+        <v>1.58396465108797</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.28557117850074</v>
@@ -30504,7 +30276,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.623307787102495</v>
+        <v>1.562461574705571</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.680647130179952</v>
@@ -30593,7 +30365,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.620131283261217</v>
+        <v>1.572680374621314</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.575487055305688</v>
@@ -30682,7 +30454,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.642794346387222</v>
+        <v>1.587442601621259</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.874306013042856</v>
@@ -30771,7 +30543,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.627602388636565</v>
+        <v>1.581780801379469</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.905393299994818</v>
@@ -30860,7 +30632,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.618407718157425</v>
+        <v>1.571010468589902</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.739487409986897</v>
@@ -30949,7 +30721,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.62843026630602</v>
+        <v>1.579461731439466</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.898716517280176</v>
@@ -31038,7 +30810,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.607662524134904</v>
+        <v>1.568455280907934</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.852104075756702</v>
@@ -31127,7 +30899,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.611295600149711</v>
+        <v>1.575446923104934</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.964782004003696</v>
@@ -31216,7 +30988,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.608176882936628</v>
+        <v>1.575499218041283</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.746167622715639</v>
@@ -31305,7 +31077,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.609396047235825</v>
+        <v>1.575724410439418</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.668644567817514</v>
@@ -31394,7 +31166,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.609915540403551</v>
+        <v>1.573018261043512</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.821196014800297</v>
@@ -31483,7 +31255,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.6176175089736</v>
+        <v>1.579902511718974</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.803934916370112</v>
@@ -31769,7 +31541,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.592208770515106</v>
+        <v>1.588321322203811</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.510560659134561</v>
@@ -31858,7 +31630,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.599773883339944</v>
+        <v>1.597981329589997</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.556397806963566</v>
@@ -31947,7 +31719,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.610884534166639</v>
+        <v>1.606474688444235</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.56457125435058</v>
@@ -32036,7 +31808,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.631940326702859</v>
+        <v>1.621549443872006</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.428707068184806</v>
@@ -32125,7 +31897,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.652490056643235</v>
+        <v>1.638913397303401</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.373175783145017</v>
@@ -32214,7 +31986,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.680529263869469</v>
+        <v>1.655864853629116</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.372715556934022</v>
@@ -32303,7 +32075,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.712945238213417</v>
+        <v>1.693741297037178</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.466496508962166</v>
@@ -32392,7 +32164,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.7187767111899</v>
+        <v>1.702008639780955</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.557439765454074</v>
@@ -32481,7 +32253,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.720198944101798</v>
+        <v>1.700904093968051</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.546105138048246</v>
@@ -32570,7 +32342,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.697082429652006</v>
+        <v>1.691195478266224</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.522177802533871</v>
@@ -32659,7 +32431,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.736187787926286</v>
+        <v>1.722683744862003</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.373255507534257</v>
@@ -32748,7 +32520,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.73015761970897</v>
+        <v>1.713356023436237</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.367573529200199</v>
@@ -32837,7 +32609,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.728932840198336</v>
+        <v>1.713973007102223</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.2916764815433</v>
@@ -32926,7 +32698,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.708499400527201</v>
+        <v>1.698998744736648</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.035866708540871</v>
@@ -33015,7 +32787,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.707191249127075</v>
+        <v>1.69534242051652</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.73448301405092</v>
@@ -33104,7 +32876,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.709243327387053</v>
+        <v>1.690590566842485</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.237317765659013</v>
@@ -33193,7 +32965,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.700675799715704</v>
+        <v>1.679766674275019</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.231391279518304</v>
@@ -33282,7 +33054,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.698435358646267</v>
+        <v>1.68159219249765</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.02914068002465</v>
@@ -33371,7 +33143,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.714500516271503</v>
+        <v>1.697043173919823</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.245927031830787</v>
@@ -33460,7 +33232,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.707514539676404</v>
+        <v>1.690154299036398</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.256334655290686</v>
@@ -33549,7 +33321,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.684447068861241</v>
+        <v>1.667044151752259</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.14646360988536</v>
@@ -33638,7 +33410,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.682830901386122</v>
+        <v>1.660750725913084</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.07612175221668</v>
@@ -33727,7 +33499,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.679560737001451</v>
+        <v>1.653551034086005</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.951123745989315</v>
@@ -33816,7 +33588,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.684776024014999</v>
+        <v>1.657165656300678</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.534095501307113</v>
@@ -33905,7 +33677,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.680423115027108</v>
+        <v>1.653046499214399</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.055988990633371</v>
@@ -33994,7 +33766,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.671809417884817</v>
+        <v>1.63849093481051</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.095375831430712</v>
@@ -34083,7 +33855,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.669640319576511</v>
+        <v>1.640398546234676</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.146733665928101</v>
@@ -34172,7 +33944,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.661223801962436</v>
+        <v>1.626992090291093</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.068328208317423</v>
@@ -34261,7 +34033,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.676091023814076</v>
+        <v>1.628851796122204</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.080210739389088</v>
@@ -34350,7 +34122,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.670831718839654</v>
+        <v>1.618661857272163</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.241210944973469</v>
@@ -34439,7 +34211,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.673245417539748</v>
+        <v>1.62444691913354</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.158265306577043</v>
@@ -34528,7 +34300,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.678949137787592</v>
+        <v>1.629897451899684</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.237857099721424</v>
@@ -34617,7 +34389,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.673514539318699</v>
+        <v>1.621110927606517</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.138214645742766</v>
@@ -34706,7 +34478,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.67303379074554</v>
+        <v>1.610486318181173</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.178707136164757</v>
@@ -34795,7 +34567,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.66111320175442</v>
+        <v>1.598848579574838</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.128205581964534</v>
@@ -34884,7 +34656,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.66480790265794</v>
+        <v>1.602146296532412</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.188822743483235</v>
@@ -34973,7 +34745,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.658261993382433</v>
+        <v>1.603476199430058</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.279877674866483</v>
@@ -35062,7 +34834,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.636453062909136</v>
+        <v>1.587289639993728</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.010056017337917</v>
@@ -35151,7 +34923,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.630709445271409</v>
+        <v>1.579413804853472</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.035401715619746</v>
@@ -35240,7 +35012,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.62918577717783</v>
+        <v>1.580211431665445</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.259422196457222</v>
@@ -35329,7 +35101,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.622201260844558</v>
+        <v>1.578370646566164</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.108218586058077</v>
@@ -35418,7 +35190,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.64284238679821</v>
+        <v>1.591427957149023</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.906180208489875</v>
@@ -35507,7 +35279,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.628680689866261</v>
+        <v>1.580954383717778</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.185356668108418</v>
@@ -35596,7 +35368,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.624030922427537</v>
+        <v>1.578722622508561</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.228160729525902</v>
@@ -35685,7 +35457,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.629750925680555</v>
+        <v>1.582499589826585</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.250395011337076</v>
@@ -35774,7 +35546,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.631498197115258</v>
+        <v>1.58201098569779</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.029736716455981</v>
@@ -35863,7 +35635,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.636125211892268</v>
+        <v>1.577672754949713</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.099232246073013</v>
@@ -35952,7 +35724,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.624896978182159</v>
+        <v>1.570265895125349</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.22863753533974</v>
@@ -36041,7 +35813,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.614491038997279</v>
+        <v>1.572809546059703</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.95343658878649</v>
@@ -36130,7 +35902,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.622949414446974</v>
+        <v>1.584931256862014</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.001489212770245</v>
@@ -36219,7 +35991,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.651566615537727</v>
+        <v>1.607528402147875</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.782688567065442</v>
@@ -36308,7 +36080,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.656705233428955</v>
+        <v>1.609379629371403</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.221002576647104</v>
@@ -36397,7 +36169,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.672736956034041</v>
+        <v>1.624514170405703</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.901552793587948</v>
@@ -36486,7 +36258,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.690027356330327</v>
+        <v>1.642128649972589</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.143945427150404</v>
@@ -36575,7 +36347,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.710615583728613</v>
+        <v>1.653233189802607</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.978623817850382</v>
@@ -36664,7 +36436,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.722784054278871</v>
+        <v>1.670181412511716</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.914589024933889</v>
@@ -36753,7 +36525,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.716764035319909</v>
+        <v>1.670770801816132</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.850489276280111</v>
@@ -36842,7 +36614,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.733156867249305</v>
+        <v>1.682113294258361</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.221095112798084</v>
@@ -36931,7 +36703,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.732298966149742</v>
+        <v>1.690919862082564</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.520346705086221</v>
@@ -37020,7 +36792,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.729199353375979</v>
+        <v>1.691094353506068</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.108768672819258</v>
@@ -37109,7 +36881,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.730156010399331</v>
+        <v>1.687201610768154</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.635881937056769</v>
@@ -37198,7 +36970,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.722458846557362</v>
+        <v>1.6859353102938</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.676978441459493</v>
@@ -37287,7 +37059,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.735318036340097</v>
+        <v>1.691659746438979</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.629253846579548</v>
@@ -37376,7 +37148,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.744894815526956</v>
+        <v>1.696883711170545</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.91274280410792</v>
@@ -37465,7 +37237,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.73053521922841</v>
+        <v>1.680645359476529</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.340795890300574</v>
@@ -37554,7 +37326,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.720624640174558</v>
+        <v>1.664700836488689</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.866042064626535</v>
@@ -37643,7 +37415,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.722554197793338</v>
+        <v>1.663606573769993</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.426911424230148</v>
@@ -37732,7 +37504,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.717546321612745</v>
+        <v>1.651437201015231</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.62248814286435</v>
@@ -37821,7 +37593,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.700068351041744</v>
+        <v>1.635275638142231</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.111676429870185</v>
@@ -37910,7 +37682,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.662623639879831</v>
+        <v>1.610599734291321</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.798072917910807</v>
@@ -37999,7 +37771,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.660306058293795</v>
+        <v>1.611260158783304</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.105859528003317</v>
@@ -38088,7 +37860,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.658487923314017</v>
+        <v>1.609736776903225</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.004660739594099</v>
@@ -38177,7 +37949,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.647940777745324</v>
+        <v>1.610214780988029</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.982964268101997</v>
@@ -38266,7 +38038,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.650944583889312</v>
+        <v>1.610288612464017</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.739209720828189</v>
@@ -38355,7 +38127,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.651217026273291</v>
+        <v>1.613582989149278</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.099370506876255</v>
@@ -38444,7 +38216,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.650189831190572</v>
+        <v>1.620698680685834</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.974617731203877</v>
@@ -38533,7 +38305,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.661618422557308</v>
+        <v>1.631901654828298</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.018964068389387</v>
@@ -38622,7 +38394,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.659378836730196</v>
+        <v>1.63118674241724</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.992463599074218</v>
@@ -38711,7 +38483,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.669621587492766</v>
+        <v>1.638296280560578</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.103070814181644</v>
@@ -38800,7 +38572,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.672605214715214</v>
+        <v>1.641534056569584</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.01473009753007</v>
@@ -38889,7 +38661,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.685051447162195</v>
+        <v>1.663621807986282</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.085933547133583</v>
@@ -39175,7 +38947,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.485164574684086</v>
+        <v>1.500491289003374</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.813236214561636</v>
@@ -39264,7 +39036,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.472453042633499</v>
+        <v>1.485662093714994</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.820685403796234</v>
@@ -39353,7 +39125,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.47488747253817</v>
+        <v>1.485057753579373</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.612193976925469</v>
@@ -39442,7 +39214,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.485771757417652</v>
+        <v>1.49422549664905</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.440923947153271</v>
@@ -39531,7 +39303,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.48944181223021</v>
+        <v>1.496604130547343</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.479386467250522</v>
@@ -39620,7 +39392,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.47751187526949</v>
+        <v>1.490041626064993</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.279857730040518</v>
@@ -39709,7 +39481,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.462808025759835</v>
+        <v>1.472285420031964</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.580320840731203</v>
@@ -39798,7 +39570,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.454188266884018</v>
+        <v>1.456815724837418</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.712717815196579</v>
@@ -39887,7 +39659,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.470249854472993</v>
+        <v>1.469381730439165</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.711004538073446</v>
@@ -39976,7 +39748,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.466617370004856</v>
+        <v>1.457121327689183</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.69671977273538</v>
@@ -40065,7 +39837,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.440360098351025</v>
+        <v>1.434759904861779</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.701186780996291</v>
@@ -40154,7 +39926,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.406633534655174</v>
+        <v>1.401701322776675</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.431996682213402</v>
@@ -40243,7 +40015,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.41173784820764</v>
+        <v>1.407845412523018</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.421019845318361</v>
@@ -40332,7 +40104,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.401838629359018</v>
+        <v>1.396619042330639</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.433496989594266</v>
@@ -40421,7 +40193,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.402440208938348</v>
+        <v>1.396997236664695</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.251244378087663</v>
@@ -40510,7 +40282,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.390979268173064</v>
+        <v>1.386309782328618</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.422146962806244</v>
@@ -40599,7 +40371,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.416420948355902</v>
+        <v>1.417707679109772</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.223147804257852</v>
@@ -40688,7 +40460,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.424578240343138</v>
+        <v>1.425250066657956</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.39904119679197</v>
@@ -40777,7 +40549,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.408630498131284</v>
+        <v>1.411112698670658</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.337087006243496</v>
@@ -40866,7 +40638,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.409739730734839</v>
+        <v>1.415948973838381</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.375771067039881</v>
@@ -40955,7 +40727,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.422142275948056</v>
+        <v>1.423830990448518</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.176210956768061</v>
@@ -41044,7 +40816,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.429658999074408</v>
+        <v>1.428162516755436</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.25519427455019</v>
@@ -41133,7 +40905,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.414191964392783</v>
+        <v>1.413291043876783</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.375119745416371</v>
@@ -41222,7 +40994,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.404705668614581</v>
+        <v>1.408221864108228</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.505542711570254</v>
@@ -41311,7 +41083,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.409854069327671</v>
+        <v>1.416197948989041</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.319061584776504</v>
@@ -41400,7 +41172,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.425141818217717</v>
+        <v>1.426712326653917</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.462359965408703</v>
@@ -41489,7 +41261,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.436067190690065</v>
+        <v>1.439352352148562</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.697459831298151</v>
@@ -41578,7 +41350,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.431026531139319</v>
+        <v>1.428666769497783</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.61619642547539</v>
@@ -41667,7 +41439,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.441889150401231</v>
+        <v>1.439035935022111</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.693411347695922</v>
@@ -41756,7 +41528,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.450387913828876</v>
+        <v>1.442868563732257</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.749474625015974</v>
@@ -41845,7 +41617,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.476025968851696</v>
+        <v>1.46910110799057</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.609678411095286</v>
@@ -41934,7 +41706,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.451030629623714</v>
+        <v>1.438074173966202</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.603160362082813</v>
@@ -42023,7 +41795,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.440883456650574</v>
+        <v>1.427796236172013</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.318904164682441</v>
@@ -42112,7 +41884,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.452723768882454</v>
+        <v>1.429404673169643</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.508914763448342</v>
@@ -42201,7 +41973,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.428553362654574</v>
+        <v>1.40595218959044</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.672041360195061</v>
@@ -42290,7 +42062,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.408334069104959</v>
+        <v>1.391123095333929</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.646496572939943</v>
@@ -42379,7 +42151,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.409039414199914</v>
+        <v>1.391600512029262</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.220765470952904</v>
@@ -42468,7 +42240,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.405881391926269</v>
+        <v>1.39391922505733</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.514653561377061</v>
@@ -42557,7 +42329,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.385771048120371</v>
+        <v>1.371501934039405</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.50647328395432</v>
@@ -42646,7 +42418,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.36073408832582</v>
+        <v>1.346476812575437</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.502922400991905</v>
@@ -42735,7 +42507,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.370631258788624</v>
+        <v>1.350694247805325</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.108957937083353</v>
@@ -42824,7 +42596,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.384045424083827</v>
+        <v>1.368630730863643</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.460439171956023</v>
@@ -42913,7 +42685,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.367521775645439</v>
+        <v>1.357567149155907</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.571869600245491</v>
@@ -43002,7 +42774,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.353418711957012</v>
+        <v>1.345334070330117</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.59364193162412</v>
@@ -43091,7 +42863,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.35131794774908</v>
+        <v>1.34139645806134</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.56548952012859</v>
@@ -43180,7 +42952,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.350301815485677</v>
+        <v>1.338190598533018</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.58863249659293</v>
@@ -43269,7 +43041,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.343179646879648</v>
+        <v>1.330086891053871</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.512818296826598</v>
@@ -43358,7 +43130,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.331971851547664</v>
+        <v>1.317923229689363</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.372641759027909</v>
@@ -43447,7 +43219,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.328028119234955</v>
+        <v>1.319237860038851</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.38972780518329</v>
@@ -43536,7 +43308,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.333428309577193</v>
+        <v>1.326016412426748</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.423954778490123</v>
@@ -43625,7 +43397,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.347224542329802</v>
+        <v>1.337170485972064</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.578706237609377</v>
@@ -43714,7 +43486,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.356139899802025</v>
+        <v>1.349199720763752</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.406950474102175</v>
@@ -43803,7 +43575,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.35641265174563</v>
+        <v>1.34853259025914</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.517762480137365</v>
@@ -43892,7 +43664,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.37780907900208</v>
+        <v>1.366362564300404</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.094210637053647</v>
@@ -43981,7 +43753,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.379334419719666</v>
+        <v>1.371968581233382</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.527535623370285</v>
@@ -44070,7 +43842,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.371854728195259</v>
+        <v>1.366315596065816</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.38538157290095</v>
@@ -44159,7 +43931,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.367852106377723</v>
+        <v>1.359670416254734</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.574533162269302</v>
@@ -44248,7 +44020,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.374280451145611</v>
+        <v>1.36424324593643</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.494479445793322</v>
@@ -44337,7 +44109,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.388140120908063</v>
+        <v>1.377325467859569</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.472296996188411</v>
@@ -44426,7 +44198,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.384871388485885</v>
+        <v>1.373031252552735</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.389690914546602</v>
@@ -44515,7 +44287,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.404710887563254</v>
+        <v>1.390613813107388</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.168945869131487</v>
@@ -44604,7 +44376,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.409246871832664</v>
+        <v>1.389973888913569</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.249341874007425</v>
@@ -44693,7 +44465,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.419197543120946</v>
+        <v>1.400020976369936</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.475685535312684</v>
@@ -44782,7 +44554,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.42488808037828</v>
+        <v>1.405696716835952</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.380569145258168</v>
@@ -44871,7 +44643,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.423151343144892</v>
+        <v>1.401008564772961</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.413608095285634</v>
@@ -44960,7 +44732,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.404256727666056</v>
+        <v>1.380706528542945</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.432587878436435</v>
@@ -45049,7 +44821,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.402070283085215</v>
+        <v>1.377662094539419</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.504920984170095</v>
@@ -45138,7 +44910,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.393976083531406</v>
+        <v>1.366083329472966</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.264442438778069</v>
@@ -45227,7 +44999,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.403961001395592</v>
+        <v>1.377269556715164</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.274322337661159</v>
@@ -45316,7 +45088,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.414668649024315</v>
+        <v>1.394063537361107</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.337581882640887</v>
@@ -45405,7 +45177,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.445478739525083</v>
+        <v>1.423881121444693</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.255462811006893</v>
@@ -45494,7 +45266,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.480782575220638</v>
+        <v>1.476955313724823</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.360804600526692</v>
@@ -45583,7 +45355,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.485888128925579</v>
+        <v>1.488477558851451</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.562761426521782</v>
@@ -45672,7 +45444,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.476659905067367</v>
+        <v>1.475744330964487</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.569893883507551</v>
@@ -45761,7 +45533,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.471891847280821</v>
+        <v>1.477775297101904</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.594061771870553</v>
@@ -45850,7 +45622,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.459950489835167</v>
+        <v>1.472711963081597</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.604461824432927</v>
@@ -45939,7 +45711,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.471421291428476</v>
+        <v>1.489192306076562</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.590260192849159</v>
@@ -46028,7 +45800,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.494180128294823</v>
+        <v>1.512905527608394</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.666917078967551</v>
@@ -46117,7 +45889,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.50485848741548</v>
+        <v>1.521923212035486</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.483940717440385</v>
@@ -46206,7 +45978,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.508757093647484</v>
+        <v>1.529122407112423</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.492830244214565</v>
@@ -46295,7 +46067,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.521711151197646</v>
+        <v>1.543222371607171</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.647962673063458</v>
@@ -46581,7 +46353,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.66571308733659</v>
+        <v>1.679234533848937</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.799913845204967</v>
@@ -46670,7 +46442,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.686087818802875</v>
+        <v>1.698027563336973</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.609415009671916</v>
@@ -46759,7 +46531,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.699007597769399</v>
+        <v>1.711189524513949</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.777220252009623</v>
@@ -46848,7 +46620,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.725878527303571</v>
+        <v>1.73574430657512</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.989969934583082</v>
@@ -46937,7 +46709,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.770854953919131</v>
+        <v>1.776202769940645</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.09520024017122</v>
@@ -47026,7 +46798,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.804768566808616</v>
+        <v>1.808094087197386</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.738735831270659</v>
@@ -47115,7 +46887,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.848537051228978</v>
+        <v>1.848657716639065</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.168210842690173</v>
@@ -47204,7 +46976,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.868485863276451</v>
+        <v>1.86560566285977</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.5020417463949</v>
@@ -47293,7 +47065,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.878575543498428</v>
+        <v>1.873618484467577</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.818413742899079</v>
@@ -47382,7 +47154,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.855678778675403</v>
+        <v>1.854221336272529</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.972340875215119</v>
@@ -47471,7 +47243,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.860910733725216</v>
+        <v>1.860770426477167</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.412118906615528</v>
@@ -47560,7 +47332,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.833845437908637</v>
+        <v>1.833864716838541</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.232974084256734</v>
@@ -47649,7 +47421,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.833843695802751</v>
+        <v>1.83071317124042</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.175513997299069</v>
@@ -47738,7 +47510,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.83778730082154</v>
+        <v>1.832490791078138</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.129551986260574</v>
@@ -47827,7 +47599,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.811562481512244</v>
+        <v>1.810307471490449</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.256754046114462</v>
@@ -47916,7 +47688,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.811694228813898</v>
+        <v>1.80880199115291</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.309615815435684</v>
@@ -48005,7 +47777,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.824255773378576</v>
+        <v>1.818768038464409</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.923317224454508</v>
@@ -48094,7 +47866,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.824465092461049</v>
+        <v>1.821120803228406</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.984896948193037</v>
@@ -48183,7 +47955,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.805824907114134</v>
+        <v>1.807933311236949</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.117057203652666</v>
@@ -48272,7 +48044,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.805763452769452</v>
+        <v>1.807456154448758</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.050208472799186</v>
@@ -48361,7 +48133,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.823100795741663</v>
+        <v>1.817346389582417</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.215144019313541</v>
@@ -48450,7 +48222,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.82424668424891</v>
+        <v>1.821634232878677</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.293272037930992</v>
@@ -48539,7 +48311,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.790805543088843</v>
+        <v>1.792808295476148</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.157872029508762</v>
@@ -48628,7 +48400,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.790359722929942</v>
+        <v>1.798518467368989</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.017317796438103</v>
@@ -48717,7 +48489,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.784120691920758</v>
+        <v>1.792808667987455</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.051614423919941</v>
@@ -48806,7 +48578,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.777489903441611</v>
+        <v>1.781783855869372</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.144307450283034</v>
@@ -48895,7 +48667,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.794735044719848</v>
+        <v>1.793854266142719</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.10501863391463</v>
@@ -48984,7 +48756,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.789392807404088</v>
+        <v>1.78848063188523</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.427874569613905</v>
@@ -49073,7 +48845,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.792547451916785</v>
+        <v>1.787805300639254</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.125448572225591</v>
@@ -49162,7 +48934,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.819854906965252</v>
+        <v>1.804493928191282</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.224515957758627</v>
@@ -49251,7 +49023,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.823254109753981</v>
+        <v>1.80817227275062</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.133951273113824</v>
@@ -49340,7 +49112,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.796980089460803</v>
+        <v>1.787925823785247</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.444795601142796</v>
@@ -49429,7 +49201,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.788215463841942</v>
+        <v>1.778115242628989</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.273000307830175</v>
@@ -49518,7 +49290,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.808827927760955</v>
+        <v>1.788547603066232</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.124847239657591</v>
@@ -49607,7 +49379,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.808708739871702</v>
+        <v>1.789161732231445</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.957030931124215</v>
@@ -49696,7 +49468,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.808518122902511</v>
+        <v>1.794036209208944</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.287392633256627</v>
@@ -49785,7 +49557,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.770109746068035</v>
+        <v>1.760331149941978</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.082369704196997</v>
@@ -49874,7 +49646,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.768365370592206</v>
+        <v>1.756985678392595</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.020295605897914</v>
@@ -49963,7 +49735,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.765716829071459</v>
+        <v>1.750927383538215</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.953822030519589</v>
@@ -50052,7 +49824,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.744973900808441</v>
+        <v>1.722465570688184</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.858137655914249</v>
@@ -50141,7 +49913,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.718178823957191</v>
+        <v>1.713427668644724</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.733259665749411</v>
@@ -50230,7 +50002,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.721297705943467</v>
+        <v>1.720950594652096</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.859209179737594</v>
@@ -50319,7 +50091,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.72055112962817</v>
+        <v>1.72087268870988</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.974906608938499</v>
@@ -50408,7 +50180,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.720282700950183</v>
+        <v>1.720992652993981</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.878117608253012</v>
@@ -50497,7 +50269,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.721215286645208</v>
+        <v>1.722903210258074</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.731038507595288</v>
@@ -50586,7 +50358,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.709514428304365</v>
+        <v>1.715446678040233</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.677493262997276</v>
@@ -50675,7 +50447,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.727276604738474</v>
+        <v>1.732098412367068</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.987192462456741</v>
@@ -50764,7 +50536,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.706992526944532</v>
+        <v>1.713118210955629</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.89057132824753</v>
@@ -50853,7 +50625,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.698780875398783</v>
+        <v>1.709736256029813</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.81549811384864</v>
@@ -50942,7 +50714,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.693599010490881</v>
+        <v>1.707519137036039</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.980472774366574</v>
@@ -51031,7 +50803,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.701456497285604</v>
+        <v>1.709045984777456</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.43100032778031</v>
@@ -51120,7 +50892,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.728346875404061</v>
+        <v>1.73990988270827</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.956075830526899</v>
@@ -51209,7 +50981,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.730859964613429</v>
+        <v>1.742142107904039</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.783904826193076</v>
@@ -51298,7 +51070,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.738308368899674</v>
+        <v>1.747033254280672</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.512673554690574</v>
@@ -51387,7 +51159,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.796197149386674</v>
+        <v>1.796729663284242</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.737719033864732</v>
@@ -51476,7 +51248,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.804545446988599</v>
+        <v>1.801799323764321</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.203780873307825</v>
@@ -51565,7 +51337,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.763514414093473</v>
+        <v>1.773187962051734</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.88174340946986</v>
@@ -51654,7 +51426,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.759851017828046</v>
+        <v>1.7674090907522</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.267321925929185</v>
@@ -51743,7 +51515,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.74570909218141</v>
+        <v>1.757046083843976</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.888759721927753</v>
@@ -51832,7 +51604,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.72473660320789</v>
+        <v>1.740372559676834</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.631333472137556</v>
@@ -51921,7 +51693,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.736995029439219</v>
+        <v>1.74627673777753</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.881166894155956</v>
@@ -52010,7 +51782,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.742423655640476</v>
+        <v>1.750378874209298</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.0464250622949</v>
@@ -52099,7 +51871,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.776566887080549</v>
+        <v>1.774110072258355</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.252025800340112</v>
@@ -52188,7 +51960,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.791417422645943</v>
+        <v>1.785589959189748</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.026352865387636</v>
@@ -52277,7 +52049,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.769687580324655</v>
+        <v>1.769369172876518</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.380988523346486</v>
@@ -52366,7 +52138,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.764063323585106</v>
+        <v>1.766605777691123</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.119711910608674</v>
@@ -52455,7 +52227,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.748839249421553</v>
+        <v>1.750310643548709</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.187088712674978</v>
@@ -52544,7 +52316,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.757694605116575</v>
+        <v>1.753347996646062</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.247433100305206</v>
@@ -52633,7 +52405,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.737003004571604</v>
+        <v>1.737155039243119</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.140312926913813</v>
@@ -52722,7 +52494,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.70164526759064</v>
+        <v>1.708491769143679</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.17055005675304</v>
@@ -52811,7 +52583,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.707901417427017</v>
+        <v>1.718902356602637</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.69324135174192</v>
@@ -52900,7 +52672,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.719172722713496</v>
+        <v>1.7217033699272</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.90785645646465</v>
@@ -52989,7 +52761,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.705226506428625</v>
+        <v>1.716325463153829</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.930077535830211</v>
@@ -53078,7 +52850,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.705432363565079</v>
+        <v>1.713712295271809</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.223380573518448</v>
@@ -53167,7 +52939,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.715363879500069</v>
+        <v>1.722404090897395</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.259688106720557</v>
@@ -53256,7 +53028,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.704152238828451</v>
+        <v>1.721401603965681</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.070500665890587</v>
@@ -53345,7 +53117,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.702930994834171</v>
+        <v>1.718108580755928</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.323439105839904</v>
@@ -53434,7 +53206,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.699736205441586</v>
+        <v>1.719330795785806</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.110709217855965</v>
@@ -53523,7 +53295,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.69836463859078</v>
+        <v>1.716305521357353</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.848222535884019</v>
@@ -53612,7 +53384,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.68555188105388</v>
+        <v>1.708026354299951</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.146313443492212</v>
@@ -53701,7 +53473,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.696048238418583</v>
+        <v>1.718723784825509</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.89357040028491</v>
